--- a/Data_frame/balancos_definitivos/VSPT3.xlsx
+++ b/Data_frame/balancos_definitivos/VSPT3.xlsx
@@ -441,302 +441,302 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2008</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2008</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2008</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>31/12/2008</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>31/03/2009</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>30/06/2009</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>30/09/2009</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>31/12/2009</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>31/03/2010</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>30/06/2010</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>30/09/2010</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>31/12/2010</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>31/03/2011</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>30/06/2011</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>30/09/2011</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>31/12/2011</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>31/03/2012</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>30/06/2012</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>30/09/2012</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>31/12/2012</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>31/03/2013</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>30/06/2013</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>30/09/2013</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>31/12/2013</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>31/03/2014</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>30/06/2014</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>30/09/2014</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>31/12/2014</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>31/03/2015</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>30/06/2015</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>30/09/2015</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>31/12/2015</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>31/03/2016</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>30/06/2016</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>30/09/2016</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>31/12/2016</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>31/03/2017</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>30/06/2017</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>30/09/2017</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>31/12/2017</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>31/03/2018</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>30/06/2018</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>30/09/2018</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>31/12/2018</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>30/06/2019</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>30/09/2019</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>31/12/2019</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>31/03/2020</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>30/06/2020</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>30/09/2020</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>31/12/2020</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>31/03/2021</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>30/06/2021</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>30/09/2021</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>31/12/2021</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>31/03/2022</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>30/09/2022</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>31/12/2022</t>
         </is>
       </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>30/09/2023</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2023</t>
+          <t>31/03/2024</t>
         </is>
       </c>
     </row>
@@ -747,97 +747,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2012288</v>
+        <v>2083970.048</v>
       </c>
       <c r="C2" t="n">
-        <v>2050398.976</v>
+        <v>2063975.04</v>
       </c>
       <c r="D2" t="n">
-        <v>2074043.008</v>
+        <v>2061795.968</v>
       </c>
       <c r="E2" t="n">
-        <v>2083970.048</v>
+        <v>2101806.976</v>
       </c>
       <c r="F2" t="n">
-        <v>2063975.04</v>
+        <v>2112157.952</v>
       </c>
       <c r="G2" t="n">
-        <v>2061795.968</v>
+        <v>2107474.048</v>
       </c>
       <c r="H2" t="n">
-        <v>2101806.976</v>
+        <v>2165723.904</v>
       </c>
       <c r="I2" t="n">
-        <v>2112157.952</v>
+        <v>2162857.984</v>
       </c>
       <c r="J2" t="n">
-        <v>2107474.048</v>
+        <v>2284869.12</v>
       </c>
       <c r="K2" t="n">
-        <v>2165723.904</v>
+        <v>2320020.992</v>
       </c>
       <c r="L2" t="n">
-        <v>2162857.984</v>
+        <v>2416745.984</v>
       </c>
       <c r="M2" t="n">
-        <v>2284869.12</v>
+        <v>2519312.896</v>
       </c>
       <c r="N2" t="n">
-        <v>2320020.992</v>
+        <v>2671747.072</v>
       </c>
       <c r="O2" t="n">
-        <v>2416745.984</v>
+        <v>2736278.016</v>
       </c>
       <c r="P2" t="n">
-        <v>2519312.896</v>
+        <v>2826309.888</v>
       </c>
       <c r="Q2" t="n">
-        <v>2671747.072</v>
+        <v>2966221.056</v>
       </c>
       <c r="R2" t="n">
-        <v>2736278.016</v>
+        <v>3303708.928</v>
       </c>
       <c r="S2" t="n">
-        <v>2826309.888</v>
+        <v>3492387.072</v>
       </c>
       <c r="T2" t="n">
-        <v>2966221.056</v>
+        <v>3542022.912</v>
       </c>
       <c r="U2" t="n">
-        <v>3303708.928</v>
+        <v>3681099.008</v>
       </c>
       <c r="V2" t="n">
-        <v>3492387.072</v>
+        <v>4052186.88</v>
       </c>
       <c r="W2" t="n">
-        <v>3542022.912</v>
+        <v>4253408</v>
       </c>
       <c r="X2" t="n">
-        <v>3681099.008</v>
+        <v>4306918.912</v>
       </c>
       <c r="Y2" t="n">
-        <v>4052186.88</v>
+        <v>4345488.896</v>
       </c>
       <c r="Z2" t="n">
-        <v>4253408</v>
+        <v>4383037.952</v>
       </c>
       <c r="AA2" t="n">
-        <v>4306918.912</v>
+        <v>4640431.104</v>
       </c>
       <c r="AB2" t="n">
-        <v>4345488.896</v>
+        <v>4748097.024</v>
       </c>
       <c r="AC2" t="n">
-        <v>4383037.952</v>
+        <v>4791583.744</v>
       </c>
       <c r="AD2" t="n">
-        <v>4640431.104</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>4748097.024</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>4791583.744</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
@@ -870,61 +870,61 @@
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>8471588.864</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>8526295.039999999</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>8878397.439999999</v>
       </c>
       <c r="AT2" t="n">
-        <v>8471588.864</v>
+        <v>8876304.384</v>
       </c>
       <c r="AU2" t="n">
-        <v>8526295.039999999</v>
+        <v>8832163.84</v>
       </c>
       <c r="AV2" t="n">
-        <v>8878397.439999999</v>
+        <v>8869840.896</v>
       </c>
       <c r="AW2" t="n">
-        <v>8876304.384</v>
+        <v>8863760.384</v>
       </c>
       <c r="AX2" t="n">
-        <v>8832163.84</v>
+        <v>8622287.872</v>
       </c>
       <c r="AY2" t="n">
-        <v>8869840.896</v>
+        <v>8717650.944</v>
       </c>
       <c r="AZ2" t="n">
-        <v>8863760.384</v>
+        <v>8838134.784</v>
       </c>
       <c r="BA2" t="n">
-        <v>8622287.872</v>
+        <v>8515611.136</v>
       </c>
       <c r="BB2" t="n">
-        <v>8717650.944</v>
+        <v>8444973.056</v>
       </c>
       <c r="BC2" t="n">
-        <v>8838134.784</v>
+        <v>8430943.232000001</v>
       </c>
       <c r="BD2" t="n">
-        <v>8515611.136</v>
+        <v>8422794.24</v>
       </c>
       <c r="BE2" t="n">
-        <v>8444973.056</v>
+        <v>6579949.056</v>
       </c>
       <c r="BF2" t="n">
-        <v>8430943.232000001</v>
+        <v>6558272</v>
       </c>
       <c r="BG2" t="n">
-        <v>8422794.24</v>
+        <v>6583819.776</v>
       </c>
       <c r="BH2" t="n">
-        <v>6579949.056</v>
+        <v>5581230.08</v>
       </c>
       <c r="BI2" t="n">
-        <v>6558272</v>
+        <v>5681397.76</v>
       </c>
     </row>
     <row r="3">
@@ -934,97 +934,97 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>331687.008</v>
+        <v>288900.992</v>
       </c>
       <c r="C3" t="n">
-        <v>360455.008</v>
+        <v>255018</v>
       </c>
       <c r="D3" t="n">
-        <v>366556</v>
+        <v>240747.008</v>
       </c>
       <c r="E3" t="n">
-        <v>288900.992</v>
+        <v>256060</v>
       </c>
       <c r="F3" t="n">
-        <v>255018</v>
+        <v>249710</v>
       </c>
       <c r="G3" t="n">
-        <v>240747.008</v>
+        <v>223988</v>
       </c>
       <c r="H3" t="n">
-        <v>256060</v>
+        <v>246680.992</v>
       </c>
       <c r="I3" t="n">
-        <v>249710</v>
+        <v>210184</v>
       </c>
       <c r="J3" t="n">
-        <v>223988</v>
+        <v>224284.992</v>
       </c>
       <c r="K3" t="n">
-        <v>246680.992</v>
+        <v>214599.008</v>
       </c>
       <c r="L3" t="n">
-        <v>210184</v>
+        <v>238316.992</v>
       </c>
       <c r="M3" t="n">
-        <v>224284.992</v>
+        <v>271415.008</v>
       </c>
       <c r="N3" t="n">
-        <v>214599.008</v>
+        <v>310558.016</v>
       </c>
       <c r="O3" t="n">
-        <v>238316.992</v>
+        <v>292251.008</v>
       </c>
       <c r="P3" t="n">
-        <v>271415.008</v>
+        <v>273919.008</v>
       </c>
       <c r="Q3" t="n">
-        <v>310558.016</v>
+        <v>264768</v>
       </c>
       <c r="R3" t="n">
-        <v>292251.008</v>
+        <v>410233.984</v>
       </c>
       <c r="S3" t="n">
-        <v>273919.008</v>
+        <v>415944.992</v>
       </c>
       <c r="T3" t="n">
-        <v>264768</v>
+        <v>403075.008</v>
       </c>
       <c r="U3" t="n">
-        <v>410233.984</v>
+        <v>454409.984</v>
       </c>
       <c r="V3" t="n">
-        <v>415944.992</v>
+        <v>341284</v>
       </c>
       <c r="W3" t="n">
-        <v>403075.008</v>
+        <v>491910.016</v>
       </c>
       <c r="X3" t="n">
-        <v>454409.984</v>
+        <v>479684</v>
       </c>
       <c r="Y3" t="n">
-        <v>341284</v>
+        <v>499982.016</v>
       </c>
       <c r="Z3" t="n">
-        <v>491910.016</v>
+        <v>388960</v>
       </c>
       <c r="AA3" t="n">
-        <v>479684</v>
+        <v>567542.0159999999</v>
       </c>
       <c r="AB3" t="n">
-        <v>499982.016</v>
+        <v>589904</v>
       </c>
       <c r="AC3" t="n">
-        <v>388960</v>
+        <v>606169.9840000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>567542.0159999999</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>589904</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>606169.9840000001</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -1057,61 +1057,61 @@
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>700744</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>714217.024</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>677692.032</v>
       </c>
       <c r="AT3" t="n">
-        <v>700744</v>
+        <v>697206.0159999999</v>
       </c>
       <c r="AU3" t="n">
-        <v>714217.024</v>
+        <v>748396.032</v>
       </c>
       <c r="AV3" t="n">
-        <v>677692.032</v>
+        <v>798016</v>
       </c>
       <c r="AW3" t="n">
-        <v>697206.0159999999</v>
+        <v>806040</v>
       </c>
       <c r="AX3" t="n">
-        <v>748396.032</v>
+        <v>687958.0159999999</v>
       </c>
       <c r="AY3" t="n">
-        <v>798016</v>
+        <v>814102.0159999999</v>
       </c>
       <c r="AZ3" t="n">
-        <v>806040</v>
+        <v>757148.032</v>
       </c>
       <c r="BA3" t="n">
-        <v>687958.0159999999</v>
+        <v>589660.992</v>
       </c>
       <c r="BB3" t="n">
-        <v>814102.0159999999</v>
+        <v>691812.992</v>
       </c>
       <c r="BC3" t="n">
-        <v>757148.032</v>
+        <v>784798.0159999999</v>
       </c>
       <c r="BD3" t="n">
-        <v>589660.992</v>
+        <v>763249.9840000001</v>
       </c>
       <c r="BE3" t="n">
-        <v>691812.992</v>
+        <v>882972.992</v>
       </c>
       <c r="BF3" t="n">
-        <v>784798.0159999999</v>
+        <v>954891.008</v>
       </c>
       <c r="BG3" t="n">
-        <v>763249.9840000001</v>
+        <v>1035209.024</v>
       </c>
       <c r="BH3" t="n">
-        <v>882972.992</v>
+        <v>689491.008</v>
       </c>
       <c r="BI3" t="n">
-        <v>954891.008</v>
+        <v>762640</v>
       </c>
     </row>
     <row r="4">
@@ -1121,97 +1121,97 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99834</v>
+        <v>98274</v>
       </c>
       <c r="C4" t="n">
-        <v>152404.992</v>
+        <v>59421</v>
       </c>
       <c r="D4" t="n">
-        <v>151727.008</v>
+        <v>45088</v>
       </c>
       <c r="E4" t="n">
-        <v>98274</v>
+        <v>59999</v>
       </c>
       <c r="F4" t="n">
-        <v>59421</v>
+        <v>30177</v>
       </c>
       <c r="G4" t="n">
-        <v>45088</v>
+        <v>27718</v>
       </c>
       <c r="H4" t="n">
-        <v>59999</v>
+        <v>57251</v>
       </c>
       <c r="I4" t="n">
-        <v>30177</v>
+        <v>17730</v>
       </c>
       <c r="J4" t="n">
-        <v>27718</v>
+        <v>30992</v>
       </c>
       <c r="K4" t="n">
-        <v>57251</v>
+        <v>15249</v>
       </c>
       <c r="L4" t="n">
-        <v>17730</v>
+        <v>33402</v>
       </c>
       <c r="M4" t="n">
-        <v>30992</v>
+        <v>53510</v>
       </c>
       <c r="N4" t="n">
-        <v>15249</v>
+        <v>50324</v>
       </c>
       <c r="O4" t="n">
-        <v>33402</v>
+        <v>28609</v>
       </c>
       <c r="P4" t="n">
-        <v>53510</v>
+        <v>40773</v>
       </c>
       <c r="Q4" t="n">
-        <v>50324</v>
+        <v>16311</v>
       </c>
       <c r="R4" t="n">
-        <v>28609</v>
+        <v>159816.992</v>
       </c>
       <c r="S4" t="n">
-        <v>40773</v>
+        <v>14769</v>
       </c>
       <c r="T4" t="n">
-        <v>16311</v>
+        <v>18655</v>
       </c>
       <c r="U4" t="n">
-        <v>159816.992</v>
+        <v>9004</v>
       </c>
       <c r="V4" t="n">
-        <v>14769</v>
+        <v>15619</v>
       </c>
       <c r="W4" t="n">
-        <v>18655</v>
+        <v>18162</v>
       </c>
       <c r="X4" t="n">
-        <v>9004</v>
+        <v>9693</v>
       </c>
       <c r="Y4" t="n">
-        <v>15619</v>
+        <v>54965</v>
       </c>
       <c r="Z4" t="n">
-        <v>18162</v>
+        <v>36103</v>
       </c>
       <c r="AA4" t="n">
-        <v>9693</v>
+        <v>29233</v>
       </c>
       <c r="AB4" t="n">
-        <v>54965</v>
+        <v>21052</v>
       </c>
       <c r="AC4" t="n">
-        <v>36103</v>
+        <v>38043</v>
       </c>
       <c r="AD4" t="n">
-        <v>29233</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>21052</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>38043</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
@@ -1244,61 +1244,61 @@
         <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>47036</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>78037</v>
       </c>
       <c r="AS4" t="n">
-        <v>0</v>
+        <v>111905</v>
       </c>
       <c r="AT4" t="n">
-        <v>47036</v>
+        <v>70421</v>
       </c>
       <c r="AU4" t="n">
-        <v>78037</v>
+        <v>186728.992</v>
       </c>
       <c r="AV4" t="n">
-        <v>111905</v>
+        <v>274288.992</v>
       </c>
       <c r="AW4" t="n">
-        <v>70421</v>
+        <v>360824.992</v>
       </c>
       <c r="AX4" t="n">
-        <v>186728.992</v>
+        <v>239052</v>
       </c>
       <c r="AY4" t="n">
-        <v>274288.992</v>
+        <v>320023.008</v>
       </c>
       <c r="AZ4" t="n">
-        <v>360824.992</v>
+        <v>314963.008</v>
       </c>
       <c r="BA4" t="n">
-        <v>239052</v>
+        <v>193828</v>
       </c>
       <c r="BB4" t="n">
-        <v>320023.008</v>
+        <v>209506</v>
       </c>
       <c r="BC4" t="n">
-        <v>314963.008</v>
+        <v>261568</v>
       </c>
       <c r="BD4" t="n">
-        <v>193828</v>
+        <v>266076</v>
       </c>
       <c r="BE4" t="n">
-        <v>209506</v>
+        <v>443958.016</v>
       </c>
       <c r="BF4" t="n">
-        <v>261568</v>
+        <v>363793.984</v>
       </c>
       <c r="BG4" t="n">
-        <v>266076</v>
+        <v>357817.984</v>
       </c>
       <c r="BH4" t="n">
-        <v>443958.016</v>
+        <v>192436</v>
       </c>
       <c r="BI4" t="n">
-        <v>363793.984</v>
+        <v>183752</v>
       </c>
     </row>
     <row r="5">
@@ -1495,97 +1495,97 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133935</v>
+        <v>101034</v>
       </c>
       <c r="C6" t="n">
-        <v>116044</v>
+        <v>108152</v>
       </c>
       <c r="D6" t="n">
-        <v>125519</v>
+        <v>108874</v>
       </c>
       <c r="E6" t="n">
-        <v>101034</v>
+        <v>115643</v>
       </c>
       <c r="F6" t="n">
-        <v>108152</v>
+        <v>145208</v>
       </c>
       <c r="G6" t="n">
-        <v>108874</v>
+        <v>124088</v>
       </c>
       <c r="H6" t="n">
-        <v>115643</v>
+        <v>114810</v>
       </c>
       <c r="I6" t="n">
-        <v>145208</v>
+        <v>110539</v>
       </c>
       <c r="J6" t="n">
-        <v>124088</v>
+        <v>76924</v>
       </c>
       <c r="K6" t="n">
-        <v>114810</v>
+        <v>86363</v>
       </c>
       <c r="L6" t="n">
-        <v>110539</v>
+        <v>102007</v>
       </c>
       <c r="M6" t="n">
-        <v>76924</v>
+        <v>104763</v>
       </c>
       <c r="N6" t="n">
-        <v>86363</v>
+        <v>144075.008</v>
       </c>
       <c r="O6" t="n">
-        <v>102007</v>
+        <v>137916</v>
       </c>
       <c r="P6" t="n">
-        <v>104763</v>
+        <v>104735</v>
       </c>
       <c r="Q6" t="n">
-        <v>144075.008</v>
+        <v>111587</v>
       </c>
       <c r="R6" t="n">
-        <v>137916</v>
+        <v>126379</v>
       </c>
       <c r="S6" t="n">
-        <v>104735</v>
+        <v>272667.008</v>
       </c>
       <c r="T6" t="n">
-        <v>111587</v>
+        <v>262940</v>
       </c>
       <c r="U6" t="n">
-        <v>126379</v>
+        <v>299644</v>
       </c>
       <c r="V6" t="n">
-        <v>272667.008</v>
+        <v>198628</v>
       </c>
       <c r="W6" t="n">
-        <v>262940</v>
+        <v>322096</v>
       </c>
       <c r="X6" t="n">
-        <v>299644</v>
+        <v>314080</v>
       </c>
       <c r="Y6" t="n">
-        <v>198628</v>
+        <v>268096</v>
       </c>
       <c r="Z6" t="n">
-        <v>322096</v>
+        <v>146204</v>
       </c>
       <c r="AA6" t="n">
-        <v>314080</v>
+        <v>326248.992</v>
       </c>
       <c r="AB6" t="n">
-        <v>268096</v>
+        <v>343161.984</v>
       </c>
       <c r="AC6" t="n">
-        <v>146204</v>
+        <v>330655.008</v>
       </c>
       <c r="AD6" t="n">
-        <v>326248.992</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>343161.984</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>330655.008</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
@@ -1618,61 +1618,61 @@
         <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>201499.008</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>180906</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>193546</v>
       </c>
       <c r="AT6" t="n">
-        <v>201499.008</v>
+        <v>227160</v>
       </c>
       <c r="AU6" t="n">
-        <v>180906</v>
+        <v>193756.992</v>
       </c>
       <c r="AV6" t="n">
-        <v>193546</v>
+        <v>165278</v>
       </c>
       <c r="AW6" t="n">
-        <v>227160</v>
+        <v>135403.008</v>
       </c>
       <c r="AX6" t="n">
-        <v>193756.992</v>
+        <v>175900.992</v>
       </c>
       <c r="AY6" t="n">
-        <v>165278</v>
+        <v>183966</v>
       </c>
       <c r="AZ6" t="n">
-        <v>135403.008</v>
+        <v>152831.008</v>
       </c>
       <c r="BA6" t="n">
-        <v>175900.992</v>
+        <v>101256</v>
       </c>
       <c r="BB6" t="n">
-        <v>183966</v>
+        <v>142292.992</v>
       </c>
       <c r="BC6" t="n">
-        <v>152831.008</v>
+        <v>174828</v>
       </c>
       <c r="BD6" t="n">
-        <v>101256</v>
+        <v>160718</v>
       </c>
       <c r="BE6" t="n">
-        <v>142292.992</v>
+        <v>121923</v>
       </c>
       <c r="BF6" t="n">
-        <v>174828</v>
+        <v>141480</v>
       </c>
       <c r="BG6" t="n">
-        <v>160718</v>
+        <v>174918</v>
       </c>
       <c r="BH6" t="n">
-        <v>121923</v>
+        <v>157102</v>
       </c>
       <c r="BI6" t="n">
-        <v>141480</v>
+        <v>208515.008</v>
       </c>
     </row>
     <row r="7">
@@ -1682,97 +1682,97 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83769</v>
+        <v>73313</v>
       </c>
       <c r="C7" t="n">
-        <v>79571</v>
+        <v>73320</v>
       </c>
       <c r="D7" t="n">
-        <v>76656</v>
+        <v>74359</v>
       </c>
       <c r="E7" t="n">
-        <v>73313</v>
+        <v>68507</v>
       </c>
       <c r="F7" t="n">
-        <v>73320</v>
+        <v>63109</v>
       </c>
       <c r="G7" t="n">
-        <v>74359</v>
+        <v>60695</v>
       </c>
       <c r="H7" t="n">
-        <v>68507</v>
+        <v>62546</v>
       </c>
       <c r="I7" t="n">
-        <v>63109</v>
+        <v>69118</v>
       </c>
       <c r="J7" t="n">
-        <v>60695</v>
+        <v>64623</v>
       </c>
       <c r="K7" t="n">
-        <v>62546</v>
+        <v>70331</v>
       </c>
       <c r="L7" t="n">
-        <v>69118</v>
+        <v>70785</v>
       </c>
       <c r="M7" t="n">
-        <v>64623</v>
+        <v>82010</v>
       </c>
       <c r="N7" t="n">
-        <v>70331</v>
+        <v>76063</v>
       </c>
       <c r="O7" t="n">
-        <v>70785</v>
+        <v>73434</v>
       </c>
       <c r="P7" t="n">
-        <v>82010</v>
+        <v>76355</v>
       </c>
       <c r="Q7" t="n">
-        <v>76063</v>
+        <v>82360</v>
       </c>
       <c r="R7" t="n">
-        <v>73434</v>
+        <v>60840</v>
       </c>
       <c r="S7" t="n">
-        <v>76355</v>
+        <v>62327</v>
       </c>
       <c r="T7" t="n">
-        <v>82360</v>
+        <v>57674</v>
       </c>
       <c r="U7" t="n">
-        <v>60840</v>
+        <v>68140</v>
       </c>
       <c r="V7" t="n">
-        <v>62327</v>
+        <v>63653</v>
       </c>
       <c r="W7" t="n">
-        <v>57674</v>
+        <v>59434</v>
       </c>
       <c r="X7" t="n">
-        <v>68140</v>
+        <v>57488</v>
       </c>
       <c r="Y7" t="n">
-        <v>63653</v>
+        <v>66907</v>
       </c>
       <c r="Z7" t="n">
-        <v>59434</v>
+        <v>56929</v>
       </c>
       <c r="AA7" t="n">
-        <v>57488</v>
+        <v>58339</v>
       </c>
       <c r="AB7" t="n">
-        <v>66907</v>
+        <v>60914</v>
       </c>
       <c r="AC7" t="n">
-        <v>56929</v>
+        <v>63029</v>
       </c>
       <c r="AD7" t="n">
-        <v>58339</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>60914</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>63029</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -1805,61 +1805,61 @@
         <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>221388.992</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>211551.008</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>215546</v>
       </c>
       <c r="AT7" t="n">
-        <v>221388.992</v>
+        <v>227379.008</v>
       </c>
       <c r="AU7" t="n">
-        <v>211551.008</v>
+        <v>214594</v>
       </c>
       <c r="AV7" t="n">
-        <v>215546</v>
+        <v>212490</v>
       </c>
       <c r="AW7" t="n">
-        <v>227379.008</v>
+        <v>201416.992</v>
       </c>
       <c r="AX7" t="n">
-        <v>214594</v>
+        <v>175830</v>
       </c>
       <c r="AY7" t="n">
-        <v>212490</v>
+        <v>213198</v>
       </c>
       <c r="AZ7" t="n">
-        <v>201416.992</v>
+        <v>211822</v>
       </c>
       <c r="BA7" t="n">
-        <v>175830</v>
+        <v>194350</v>
       </c>
       <c r="BB7" t="n">
-        <v>213198</v>
+        <v>201647.008</v>
       </c>
       <c r="BC7" t="n">
-        <v>211822</v>
+        <v>223004.992</v>
       </c>
       <c r="BD7" t="n">
-        <v>194350</v>
+        <v>224780.992</v>
       </c>
       <c r="BE7" t="n">
-        <v>201647.008</v>
+        <v>222388</v>
       </c>
       <c r="BF7" t="n">
-        <v>223004.992</v>
+        <v>278587.008</v>
       </c>
       <c r="BG7" t="n">
-        <v>224780.992</v>
+        <v>286844</v>
       </c>
       <c r="BH7" t="n">
-        <v>222388</v>
+        <v>133549</v>
       </c>
       <c r="BI7" t="n">
-        <v>278587.008</v>
+        <v>136943.008</v>
       </c>
     </row>
     <row r="8">
@@ -2080,73 +2080,73 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>34208</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>25487</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>14877</v>
       </c>
       <c r="M9" t="n">
-        <v>34208</v>
+        <v>11850</v>
       </c>
       <c r="N9" t="n">
-        <v>25487</v>
+        <v>9772</v>
       </c>
       <c r="O9" t="n">
-        <v>14877</v>
+        <v>9901</v>
       </c>
       <c r="P9" t="n">
-        <v>11850</v>
+        <v>11494</v>
       </c>
       <c r="Q9" t="n">
-        <v>9772</v>
+        <v>9657</v>
       </c>
       <c r="R9" t="n">
-        <v>9901</v>
+        <v>31153</v>
       </c>
       <c r="S9" t="n">
-        <v>11494</v>
+        <v>20097</v>
       </c>
       <c r="T9" t="n">
-        <v>9657</v>
+        <v>23007</v>
       </c>
       <c r="U9" t="n">
-        <v>31153</v>
+        <v>33332</v>
       </c>
       <c r="V9" t="n">
-        <v>20097</v>
+        <v>31815</v>
       </c>
       <c r="W9" t="n">
-        <v>23007</v>
+        <v>27402</v>
       </c>
       <c r="X9" t="n">
-        <v>33332</v>
+        <v>26764</v>
       </c>
       <c r="Y9" t="n">
-        <v>31815</v>
+        <v>49935</v>
       </c>
       <c r="Z9" t="n">
-        <v>27402</v>
+        <v>48691</v>
       </c>
       <c r="AA9" t="n">
-        <v>26764</v>
+        <v>37903</v>
       </c>
       <c r="AB9" t="n">
-        <v>49935</v>
+        <v>36084</v>
       </c>
       <c r="AC9" t="n">
-        <v>48691</v>
+        <v>40997</v>
       </c>
       <c r="AD9" t="n">
-        <v>37903</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>36084</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>40997</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -2179,61 +2179,61 @@
         <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>191054</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>209484</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>133836</v>
       </c>
       <c r="AT9" t="n">
-        <v>191054</v>
+        <v>145432.992</v>
       </c>
       <c r="AU9" t="n">
-        <v>209484</v>
+        <v>129174</v>
       </c>
       <c r="AV9" t="n">
-        <v>133836</v>
+        <v>121329</v>
       </c>
       <c r="AW9" t="n">
-        <v>145432.992</v>
+        <v>76780</v>
       </c>
       <c r="AX9" t="n">
-        <v>129174</v>
+        <v>69911</v>
       </c>
       <c r="AY9" t="n">
-        <v>121329</v>
+        <v>67522</v>
       </c>
       <c r="AZ9" t="n">
-        <v>76780</v>
+        <v>49324</v>
       </c>
       <c r="BA9" t="n">
-        <v>69911</v>
+        <v>76009</v>
       </c>
       <c r="BB9" t="n">
-        <v>67522</v>
+        <v>104583</v>
       </c>
       <c r="BC9" t="n">
-        <v>49324</v>
+        <v>92052</v>
       </c>
       <c r="BD9" t="n">
-        <v>76009</v>
+        <v>80727</v>
       </c>
       <c r="BE9" t="n">
-        <v>104583</v>
+        <v>62392</v>
       </c>
       <c r="BF9" t="n">
-        <v>92052</v>
+        <v>137080.992</v>
       </c>
       <c r="BG9" t="n">
-        <v>80727</v>
+        <v>172990</v>
       </c>
       <c r="BH9" t="n">
-        <v>62392</v>
+        <v>166132</v>
       </c>
       <c r="BI9" t="n">
-        <v>137080.992</v>
+        <v>189638</v>
       </c>
     </row>
     <row r="10">
@@ -2267,73 +2267,73 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>6639</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4107</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2280</v>
       </c>
       <c r="M10" t="n">
-        <v>6639</v>
+        <v>3316</v>
       </c>
       <c r="N10" t="n">
-        <v>4107</v>
+        <v>7151</v>
       </c>
       <c r="O10" t="n">
-        <v>2280</v>
+        <v>18435</v>
       </c>
       <c r="P10" t="n">
-        <v>3316</v>
+        <v>14450</v>
       </c>
       <c r="Q10" t="n">
-        <v>7151</v>
+        <v>12074</v>
       </c>
       <c r="R10" t="n">
-        <v>18435</v>
+        <v>10861</v>
       </c>
       <c r="S10" t="n">
-        <v>14450</v>
+        <v>22242</v>
       </c>
       <c r="T10" t="n">
-        <v>12074</v>
+        <v>16148</v>
       </c>
       <c r="U10" t="n">
-        <v>10861</v>
+        <v>13103</v>
       </c>
       <c r="V10" t="n">
-        <v>22242</v>
+        <v>7537</v>
       </c>
       <c r="W10" t="n">
-        <v>16148</v>
+        <v>26975</v>
       </c>
       <c r="X10" t="n">
-        <v>13103</v>
+        <v>20024</v>
       </c>
       <c r="Y10" t="n">
-        <v>7537</v>
+        <v>14243</v>
       </c>
       <c r="Z10" t="n">
-        <v>26975</v>
+        <v>27483</v>
       </c>
       <c r="AA10" t="n">
-        <v>20024</v>
+        <v>43485</v>
       </c>
       <c r="AB10" t="n">
-        <v>14243</v>
+        <v>30473</v>
       </c>
       <c r="AC10" t="n">
-        <v>27483</v>
+        <v>18148</v>
       </c>
       <c r="AD10" t="n">
-        <v>43485</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>30473</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>18148</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -2366,28 +2366,28 @@
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>9570</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>5394</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>1115</v>
       </c>
       <c r="AT10" t="n">
-        <v>9570</v>
+        <v>5111</v>
       </c>
       <c r="AU10" t="n">
-        <v>5394</v>
+        <v>1018</v>
       </c>
       <c r="AV10" t="n">
-        <v>1115</v>
+        <v>0</v>
       </c>
       <c r="AW10" t="n">
-        <v>5111</v>
+        <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="AY10" t="n">
         <v>0</v>
@@ -2430,97 +2430,97 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14149</v>
+        <v>16280</v>
       </c>
       <c r="C11" t="n">
-        <v>12435</v>
+        <v>14125</v>
       </c>
       <c r="D11" t="n">
-        <v>12654</v>
+        <v>12426</v>
       </c>
       <c r="E11" t="n">
-        <v>16280</v>
+        <v>11911</v>
       </c>
       <c r="F11" t="n">
-        <v>14125</v>
+        <v>11216</v>
       </c>
       <c r="G11" t="n">
-        <v>12426</v>
+        <v>11487</v>
       </c>
       <c r="H11" t="n">
-        <v>11911</v>
+        <v>12074</v>
       </c>
       <c r="I11" t="n">
-        <v>11216</v>
+        <v>12797</v>
       </c>
       <c r="J11" t="n">
-        <v>11487</v>
+        <v>10899</v>
       </c>
       <c r="K11" t="n">
-        <v>12074</v>
+        <v>13062</v>
       </c>
       <c r="L11" t="n">
-        <v>12797</v>
+        <v>14966</v>
       </c>
       <c r="M11" t="n">
-        <v>10899</v>
+        <v>15966</v>
       </c>
       <c r="N11" t="n">
-        <v>13062</v>
+        <v>23173</v>
       </c>
       <c r="O11" t="n">
-        <v>14966</v>
+        <v>23956</v>
       </c>
       <c r="P11" t="n">
-        <v>15966</v>
+        <v>26112</v>
       </c>
       <c r="Q11" t="n">
-        <v>23173</v>
+        <v>32779</v>
       </c>
       <c r="R11" t="n">
-        <v>23956</v>
+        <v>21184</v>
       </c>
       <c r="S11" t="n">
-        <v>26112</v>
+        <v>23843</v>
       </c>
       <c r="T11" t="n">
-        <v>32779</v>
+        <v>24651</v>
       </c>
       <c r="U11" t="n">
-        <v>21184</v>
+        <v>31187</v>
       </c>
       <c r="V11" t="n">
-        <v>23843</v>
+        <v>24032</v>
       </c>
       <c r="W11" t="n">
-        <v>24651</v>
+        <v>37841</v>
       </c>
       <c r="X11" t="n">
-        <v>31187</v>
+        <v>51635</v>
       </c>
       <c r="Y11" t="n">
-        <v>24032</v>
+        <v>45836</v>
       </c>
       <c r="Z11" t="n">
-        <v>37841</v>
+        <v>73550</v>
       </c>
       <c r="AA11" t="n">
-        <v>51635</v>
+        <v>72333</v>
       </c>
       <c r="AB11" t="n">
-        <v>45836</v>
+        <v>98219</v>
       </c>
       <c r="AC11" t="n">
-        <v>73550</v>
+        <v>115298</v>
       </c>
       <c r="AD11" t="n">
-        <v>72333</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>98219</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>115298</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -2553,61 +2553,61 @@
         <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>30196</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>28845</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>21744</v>
       </c>
       <c r="AT11" t="n">
-        <v>30196</v>
+        <v>21702</v>
       </c>
       <c r="AU11" t="n">
-        <v>28845</v>
+        <v>23124</v>
       </c>
       <c r="AV11" t="n">
-        <v>21744</v>
+        <v>24630</v>
       </c>
       <c r="AW11" t="n">
-        <v>21702</v>
+        <v>31615</v>
       </c>
       <c r="AX11" t="n">
-        <v>23124</v>
+        <v>27264</v>
       </c>
       <c r="AY11" t="n">
-        <v>24630</v>
+        <v>29393</v>
       </c>
       <c r="AZ11" t="n">
-        <v>31615</v>
+        <v>28208</v>
       </c>
       <c r="BA11" t="n">
-        <v>27264</v>
+        <v>24218</v>
       </c>
       <c r="BB11" t="n">
-        <v>29393</v>
+        <v>33784</v>
       </c>
       <c r="BC11" t="n">
-        <v>28208</v>
+        <v>33345</v>
       </c>
       <c r="BD11" t="n">
-        <v>24218</v>
+        <v>30948</v>
       </c>
       <c r="BE11" t="n">
-        <v>33784</v>
+        <v>32312</v>
       </c>
       <c r="BF11" t="n">
-        <v>33345</v>
+        <v>33949</v>
       </c>
       <c r="BG11" t="n">
-        <v>30948</v>
+        <v>42639</v>
       </c>
       <c r="BH11" t="n">
-        <v>32312</v>
+        <v>40272</v>
       </c>
       <c r="BI11" t="n">
-        <v>33949</v>
+        <v>43792</v>
       </c>
     </row>
     <row r="12">
@@ -2617,97 +2617,97 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>112146</v>
+        <v>117319</v>
       </c>
       <c r="C12" t="n">
-        <v>103174</v>
+        <v>116521</v>
       </c>
       <c r="D12" t="n">
-        <v>106637</v>
+        <v>123356</v>
       </c>
       <c r="E12" t="n">
-        <v>117319</v>
+        <v>121422</v>
       </c>
       <c r="F12" t="n">
-        <v>116521</v>
+        <v>128751</v>
       </c>
       <c r="G12" t="n">
-        <v>123356</v>
+        <v>134680</v>
       </c>
       <c r="H12" t="n">
-        <v>121422</v>
+        <v>144240.992</v>
       </c>
       <c r="I12" t="n">
-        <v>128751</v>
+        <v>149071.008</v>
       </c>
       <c r="J12" t="n">
-        <v>134680</v>
+        <v>159119.008</v>
       </c>
       <c r="K12" t="n">
-        <v>144240.992</v>
+        <v>173312</v>
       </c>
       <c r="L12" t="n">
-        <v>149071.008</v>
+        <v>177932</v>
       </c>
       <c r="M12" t="n">
-        <v>159119.008</v>
+        <v>177622</v>
       </c>
       <c r="N12" t="n">
-        <v>173312</v>
+        <v>195232.992</v>
       </c>
       <c r="O12" t="n">
-        <v>177932</v>
+        <v>183399.008</v>
       </c>
       <c r="P12" t="n">
-        <v>177622</v>
+        <v>181052.992</v>
       </c>
       <c r="Q12" t="n">
-        <v>195232.992</v>
+        <v>170320</v>
       </c>
       <c r="R12" t="n">
-        <v>183399.008</v>
+        <v>185120.992</v>
       </c>
       <c r="S12" t="n">
-        <v>181052.992</v>
+        <v>189928.992</v>
       </c>
       <c r="T12" t="n">
-        <v>170320</v>
+        <v>194387.008</v>
       </c>
       <c r="U12" t="n">
-        <v>185120.992</v>
+        <v>200767.008</v>
       </c>
       <c r="V12" t="n">
-        <v>189928.992</v>
+        <v>574110.0159999999</v>
       </c>
       <c r="W12" t="n">
-        <v>194387.008</v>
+        <v>595598.0159999999</v>
       </c>
       <c r="X12" t="n">
-        <v>200767.008</v>
+        <v>607659.008</v>
       </c>
       <c r="Y12" t="n">
-        <v>574110.0159999999</v>
+        <v>626065.024</v>
       </c>
       <c r="Z12" t="n">
-        <v>595598.0159999999</v>
+        <v>720812.992</v>
       </c>
       <c r="AA12" t="n">
-        <v>607659.008</v>
+        <v>742532.992</v>
       </c>
       <c r="AB12" t="n">
-        <v>626065.024</v>
+        <v>753072</v>
       </c>
       <c r="AC12" t="n">
-        <v>720812.992</v>
+        <v>755100.032</v>
       </c>
       <c r="AD12" t="n">
-        <v>742532.992</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>753072</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>755100.032</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
@@ -2740,61 +2740,61 @@
         <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>940857.024</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>895267.008</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>874038.976</v>
       </c>
       <c r="AT12" t="n">
-        <v>940857.024</v>
+        <v>922289.9840000001</v>
       </c>
       <c r="AU12" t="n">
-        <v>895267.008</v>
+        <v>941411.968</v>
       </c>
       <c r="AV12" t="n">
-        <v>874038.976</v>
+        <v>955360</v>
       </c>
       <c r="AW12" t="n">
-        <v>922289.9840000001</v>
+        <v>1017598.976</v>
       </c>
       <c r="AX12" t="n">
-        <v>941411.968</v>
+        <v>1038385.024</v>
       </c>
       <c r="AY12" t="n">
-        <v>955360</v>
+        <v>1308635.008</v>
       </c>
       <c r="AZ12" t="n">
-        <v>1017598.976</v>
+        <v>1311704.064</v>
       </c>
       <c r="BA12" t="n">
-        <v>1038385.024</v>
+        <v>1305629.056</v>
       </c>
       <c r="BB12" t="n">
-        <v>1308635.008</v>
+        <v>1261688.96</v>
       </c>
       <c r="BC12" t="n">
-        <v>1311704.064</v>
+        <v>1309438.976</v>
       </c>
       <c r="BD12" t="n">
-        <v>1305629.056</v>
+        <v>1335282.944</v>
       </c>
       <c r="BE12" t="n">
-        <v>1261688.96</v>
+        <v>916595.968</v>
       </c>
       <c r="BF12" t="n">
-        <v>1309438.976</v>
+        <v>832585.024</v>
       </c>
       <c r="BG12" t="n">
-        <v>1335282.944</v>
+        <v>826019.968</v>
       </c>
       <c r="BH12" t="n">
-        <v>916595.968</v>
+        <v>759862.0159999999</v>
       </c>
       <c r="BI12" t="n">
-        <v>832585.024</v>
+        <v>734262.976</v>
       </c>
     </row>
     <row r="13">
@@ -3178,97 +3178,97 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>102776</v>
+        <v>103907</v>
       </c>
       <c r="C15" t="n">
-        <v>93804</v>
+        <v>106848</v>
       </c>
       <c r="D15" t="n">
-        <v>97267</v>
+        <v>113679</v>
       </c>
       <c r="E15" t="n">
-        <v>103907</v>
+        <v>111742</v>
       </c>
       <c r="F15" t="n">
-        <v>106848</v>
+        <v>119067</v>
       </c>
       <c r="G15" t="n">
-        <v>113679</v>
+        <v>125060</v>
       </c>
       <c r="H15" t="n">
-        <v>111742</v>
+        <v>134610</v>
       </c>
       <c r="I15" t="n">
-        <v>119067</v>
+        <v>139431.008</v>
       </c>
       <c r="J15" t="n">
-        <v>125060</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>134610</v>
+        <v>12752</v>
       </c>
       <c r="L15" t="n">
-        <v>139431.008</v>
+        <v>12752</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>12752</v>
       </c>
       <c r="N15" t="n">
-        <v>12752</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>12752</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>12752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>38582</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>39401</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>45499</v>
       </c>
       <c r="U15" t="n">
-        <v>38582</v>
+        <v>46989</v>
       </c>
       <c r="V15" t="n">
-        <v>39401</v>
+        <v>53493</v>
       </c>
       <c r="W15" t="n">
-        <v>45499</v>
+        <v>60462</v>
       </c>
       <c r="X15" t="n">
-        <v>46989</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>53493</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>60462</v>
+        <v>67515</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>70644</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>74134</v>
       </c>
       <c r="AC15" t="n">
-        <v>67515</v>
+        <v>75237</v>
       </c>
       <c r="AD15" t="n">
-        <v>70644</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>74134</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>75237</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -3488,61 +3488,61 @@
         <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>101313</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>100848</v>
       </c>
       <c r="AS16" t="n">
-        <v>0</v>
+        <v>112245</v>
       </c>
       <c r="AT16" t="n">
-        <v>101313</v>
+        <v>103362</v>
       </c>
       <c r="AU16" t="n">
-        <v>100848</v>
+        <v>113465</v>
       </c>
       <c r="AV16" t="n">
-        <v>112245</v>
+        <v>114886</v>
       </c>
       <c r="AW16" t="n">
-        <v>103362</v>
+        <v>117781</v>
       </c>
       <c r="AX16" t="n">
-        <v>113465</v>
+        <v>122051</v>
       </c>
       <c r="AY16" t="n">
-        <v>114886</v>
+        <v>123529</v>
       </c>
       <c r="AZ16" t="n">
-        <v>117781</v>
+        <v>125267</v>
       </c>
       <c r="BA16" t="n">
-        <v>122051</v>
+        <v>127678</v>
       </c>
       <c r="BB16" t="n">
-        <v>123529</v>
+        <v>130716</v>
       </c>
       <c r="BC16" t="n">
-        <v>125267</v>
+        <v>134447.008</v>
       </c>
       <c r="BD16" t="n">
-        <v>127678</v>
+        <v>135039.008</v>
       </c>
       <c r="BE16" t="n">
-        <v>130716</v>
+        <v>133008</v>
       </c>
       <c r="BF16" t="n">
-        <v>134447.008</v>
+        <v>134611.008</v>
       </c>
       <c r="BG16" t="n">
-        <v>135039.008</v>
+        <v>135407.008</v>
       </c>
       <c r="BH16" t="n">
-        <v>133008</v>
+        <v>123096</v>
       </c>
       <c r="BI16" t="n">
-        <v>134611.008</v>
+        <v>127942</v>
       </c>
     </row>
     <row r="17">
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>180751.008</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>180751.008</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
         <v>0</v>
@@ -3950,73 +3950,73 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>26765</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>26308</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>25852</v>
       </c>
       <c r="M19" t="n">
-        <v>26765</v>
+        <v>25396</v>
       </c>
       <c r="N19" t="n">
-        <v>26308</v>
+        <v>24940</v>
       </c>
       <c r="O19" t="n">
-        <v>25852</v>
+        <v>24484</v>
       </c>
       <c r="P19" t="n">
-        <v>25396</v>
+        <v>24027</v>
       </c>
       <c r="Q19" t="n">
-        <v>24940</v>
+        <v>23571</v>
       </c>
       <c r="R19" t="n">
-        <v>24484</v>
+        <v>23115</v>
       </c>
       <c r="S19" t="n">
-        <v>24027</v>
+        <v>22659</v>
       </c>
       <c r="T19" t="n">
-        <v>23571</v>
+        <v>22203</v>
       </c>
       <c r="U19" t="n">
-        <v>23115</v>
+        <v>21746</v>
       </c>
       <c r="V19" t="n">
-        <v>22659</v>
+        <v>21290</v>
       </c>
       <c r="W19" t="n">
-        <v>22203</v>
+        <v>20834</v>
       </c>
       <c r="X19" t="n">
-        <v>21746</v>
+        <v>20378</v>
       </c>
       <c r="Y19" t="n">
-        <v>21290</v>
+        <v>19921</v>
       </c>
       <c r="Z19" t="n">
-        <v>20834</v>
+        <v>19465</v>
       </c>
       <c r="AA19" t="n">
-        <v>20378</v>
+        <v>19009</v>
       </c>
       <c r="AB19" t="n">
-        <v>19921</v>
+        <v>18553</v>
       </c>
       <c r="AC19" t="n">
-        <v>19465</v>
+        <v>18097</v>
       </c>
       <c r="AD19" t="n">
-        <v>19009</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>18553</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>18097</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>0</v>
+        <v>285415.008</v>
       </c>
       <c r="AW19" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="AY19" t="n">
-        <v>285415.008</v>
+        <v>0</v>
       </c>
       <c r="AZ19" t="n">
         <v>0</v>
@@ -4113,43 +4113,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>4042</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="E20" t="n">
-        <v>4042</v>
+        <v>310</v>
       </c>
       <c r="F20" t="n">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="G20" t="n">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="H20" t="n">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="I20" t="n">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="J20" t="n">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="K20" t="n">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="L20" t="n">
-        <v>270</v>
+        <v>151</v>
       </c>
       <c r="M20" t="n">
-        <v>282</v>
+        <v>151</v>
       </c>
       <c r="N20" t="n">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="O20" t="n">
         <v>151</v>
@@ -4158,13 +4158,13 @@
         <v>151</v>
       </c>
       <c r="Q20" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -4173,37 +4173,37 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>363097.984</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>247627.008</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>247627.008</v>
       </c>
       <c r="Y20" t="n">
-        <v>363097.984</v>
+        <v>247627.008</v>
       </c>
       <c r="Z20" t="n">
-        <v>247627.008</v>
+        <v>261195.008</v>
       </c>
       <c r="AA20" t="n">
-        <v>247627.008</v>
+        <v>261195.008</v>
       </c>
       <c r="AB20" t="n">
-        <v>247627.008</v>
+        <v>261195.008</v>
       </c>
       <c r="AC20" t="n">
         <v>261195.008</v>
       </c>
       <c r="AD20" t="n">
-        <v>261195.008</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>261195.008</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>261195.008</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AS20" t="n">
         <v>0</v>
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="AU20" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AV20" t="n">
         <v>0</v>
@@ -4324,73 +4324,73 @@
         <v>9370</v>
       </c>
       <c r="J21" t="n">
-        <v>9370</v>
+        <v>132072</v>
       </c>
       <c r="K21" t="n">
-        <v>9370</v>
+        <v>134040</v>
       </c>
       <c r="L21" t="n">
-        <v>9370</v>
+        <v>139176.992</v>
       </c>
       <c r="M21" t="n">
-        <v>132072</v>
+        <v>139323.008</v>
       </c>
       <c r="N21" t="n">
-        <v>134040</v>
+        <v>170142</v>
       </c>
       <c r="O21" t="n">
-        <v>139176.992</v>
+        <v>158764</v>
       </c>
       <c r="P21" t="n">
-        <v>139323.008</v>
+        <v>156875.008</v>
       </c>
       <c r="Q21" t="n">
-        <v>170142</v>
+        <v>146748.992</v>
       </c>
       <c r="R21" t="n">
-        <v>158764</v>
+        <v>123424</v>
       </c>
       <c r="S21" t="n">
-        <v>156875.008</v>
+        <v>127869</v>
       </c>
       <c r="T21" t="n">
-        <v>146748.992</v>
+        <v>126685</v>
       </c>
       <c r="U21" t="n">
-        <v>123424</v>
+        <v>132032</v>
       </c>
       <c r="V21" t="n">
-        <v>127869</v>
+        <v>136228.992</v>
       </c>
       <c r="W21" t="n">
-        <v>126685</v>
+        <v>266675.008</v>
       </c>
       <c r="X21" t="n">
-        <v>132032</v>
+        <v>339654.016</v>
       </c>
       <c r="Y21" t="n">
-        <v>136228.992</v>
+        <v>358516.992</v>
       </c>
       <c r="Z21" t="n">
-        <v>266675.008</v>
+        <v>372638.016</v>
       </c>
       <c r="AA21" t="n">
-        <v>339654.016</v>
+        <v>391684.992</v>
       </c>
       <c r="AB21" t="n">
-        <v>358516.992</v>
+        <v>218439.008</v>
       </c>
       <c r="AC21" t="n">
-        <v>372638.016</v>
+        <v>400571.008</v>
       </c>
       <c r="AD21" t="n">
-        <v>391684.992</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>218439.008</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>400571.008</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -4423,61 +4423,61 @@
         <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>256199.008</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>255887.008</v>
       </c>
       <c r="AS21" t="n">
-        <v>0</v>
+        <v>245231.008</v>
       </c>
       <c r="AT21" t="n">
-        <v>256199.008</v>
+        <v>245232</v>
       </c>
       <c r="AU21" t="n">
-        <v>255887.008</v>
+        <v>245231.008</v>
       </c>
       <c r="AV21" t="n">
-        <v>245231.008</v>
+        <v>262003.008</v>
       </c>
       <c r="AW21" t="n">
-        <v>245232</v>
+        <v>263270</v>
       </c>
       <c r="AX21" t="n">
-        <v>245231.008</v>
+        <v>263270</v>
       </c>
       <c r="AY21" t="n">
-        <v>262003.008</v>
+        <v>269216.992</v>
       </c>
       <c r="AZ21" t="n">
-        <v>263270</v>
+        <v>272049.984</v>
       </c>
       <c r="BA21" t="n">
-        <v>263270</v>
+        <v>275062.016</v>
       </c>
       <c r="BB21" t="n">
-        <v>269216.992</v>
+        <v>277780</v>
       </c>
       <c r="BC21" t="n">
-        <v>272049.984</v>
+        <v>280588.992</v>
       </c>
       <c r="BD21" t="n">
-        <v>275062.016</v>
+        <v>283164</v>
       </c>
       <c r="BE21" t="n">
-        <v>277780</v>
+        <v>286116</v>
       </c>
       <c r="BF21" t="n">
-        <v>280588.992</v>
+        <v>288867.008</v>
       </c>
       <c r="BG21" t="n">
-        <v>283164</v>
+        <v>294744.992</v>
       </c>
       <c r="BH21" t="n">
-        <v>286116</v>
+        <v>297606.016</v>
       </c>
       <c r="BI21" t="n">
-        <v>288867.008</v>
+        <v>300719.008</v>
       </c>
     </row>
     <row r="22">
@@ -4674,97 +4674,97 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1568455.04</v>
+        <v>1636633.984</v>
       </c>
       <c r="C23" t="n">
-        <v>1586770.048</v>
+        <v>1652176</v>
       </c>
       <c r="D23" t="n">
-        <v>1600850.048</v>
+        <v>1658286.976</v>
       </c>
       <c r="E23" t="n">
-        <v>1636633.984</v>
+        <v>1685773.952</v>
       </c>
       <c r="F23" t="n">
-        <v>1652176</v>
+        <v>1695986.944</v>
       </c>
       <c r="G23" t="n">
-        <v>1658286.976</v>
+        <v>486793.984</v>
       </c>
       <c r="H23" t="n">
-        <v>1685773.952</v>
+        <v>478656</v>
       </c>
       <c r="I23" t="n">
-        <v>1695986.944</v>
+        <v>474855.008</v>
       </c>
       <c r="J23" t="n">
-        <v>486793.984</v>
+        <v>474783.008</v>
       </c>
       <c r="K23" t="n">
-        <v>478656</v>
+        <v>453575.008</v>
       </c>
       <c r="L23" t="n">
-        <v>474855.008</v>
+        <v>458448</v>
       </c>
       <c r="M23" t="n">
-        <v>474783.008</v>
+        <v>459540</v>
       </c>
       <c r="N23" t="n">
-        <v>453575.008</v>
+        <v>470592</v>
       </c>
       <c r="O23" t="n">
-        <v>458448</v>
+        <v>468448.992</v>
       </c>
       <c r="P23" t="n">
-        <v>459540</v>
+        <v>482696</v>
       </c>
       <c r="Q23" t="n">
-        <v>470592</v>
+        <v>564920</v>
       </c>
       <c r="R23" t="n">
-        <v>468448.992</v>
+        <v>639537.024</v>
       </c>
       <c r="S23" t="n">
-        <v>482696</v>
+        <v>783408</v>
       </c>
       <c r="T23" t="n">
-        <v>564920</v>
+        <v>776972.992</v>
       </c>
       <c r="U23" t="n">
-        <v>639537.024</v>
+        <v>787939.008</v>
       </c>
       <c r="V23" t="n">
-        <v>783408</v>
+        <v>812588.032</v>
       </c>
       <c r="W23" t="n">
-        <v>776972.992</v>
+        <v>829243.008</v>
       </c>
       <c r="X23" t="n">
-        <v>787939.008</v>
+        <v>831212.992</v>
       </c>
       <c r="Y23" t="n">
-        <v>812588.032</v>
+        <v>758086.976</v>
       </c>
       <c r="Z23" t="n">
-        <v>829243.008</v>
+        <v>763414.976</v>
       </c>
       <c r="AA23" t="n">
-        <v>831212.992</v>
+        <v>804390.976</v>
       </c>
       <c r="AB23" t="n">
-        <v>758086.976</v>
+        <v>800475.008</v>
       </c>
       <c r="AC23" t="n">
-        <v>763414.976</v>
+        <v>799811.968</v>
       </c>
       <c r="AD23" t="n">
-        <v>804390.976</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>800475.008</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>799811.968</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
@@ -4797,61 +4797,61 @@
         <v>0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0</v>
+        <v>1378662.016</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>1490573.952</v>
       </c>
       <c r="AS23" t="n">
-        <v>0</v>
+        <v>1557051.008</v>
       </c>
       <c r="AT23" t="n">
-        <v>1378662.016</v>
+        <v>1653540.992</v>
       </c>
       <c r="AU23" t="n">
-        <v>1490573.952</v>
+        <v>1611250.048</v>
       </c>
       <c r="AV23" t="n">
-        <v>1557051.008</v>
+        <v>1556537.984</v>
       </c>
       <c r="AW23" t="n">
-        <v>1653540.992</v>
+        <v>1525164.032</v>
       </c>
       <c r="AX23" t="n">
-        <v>1611250.048</v>
+        <v>1542438.016</v>
       </c>
       <c r="AY23" t="n">
-        <v>1556537.984</v>
+        <v>1491879.04</v>
       </c>
       <c r="AZ23" t="n">
-        <v>1525164.032</v>
+        <v>1506099.968</v>
       </c>
       <c r="BA23" t="n">
-        <v>1542438.016</v>
+        <v>1703928.064</v>
       </c>
       <c r="BB23" t="n">
-        <v>1491879.04</v>
+        <v>1667393.024</v>
       </c>
       <c r="BC23" t="n">
-        <v>1506099.968</v>
+        <v>1641624.96</v>
       </c>
       <c r="BD23" t="n">
-        <v>1703928.064</v>
+        <v>1623933.056</v>
       </c>
       <c r="BE23" t="n">
-        <v>1667393.024</v>
+        <v>1696800</v>
       </c>
       <c r="BF23" t="n">
-        <v>1641624.96</v>
+        <v>1686944</v>
       </c>
       <c r="BG23" t="n">
-        <v>1623933.056</v>
+        <v>1755997.056</v>
       </c>
       <c r="BH23" t="n">
-        <v>1696800</v>
+        <v>1763785.984</v>
       </c>
       <c r="BI23" t="n">
-        <v>1686944</v>
+        <v>1761106.944</v>
       </c>
     </row>
     <row r="24">
@@ -4861,97 +4861,97 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>41116</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>40260</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>39406</v>
       </c>
       <c r="E24" t="n">
-        <v>41116</v>
+        <v>38551</v>
       </c>
       <c r="F24" t="n">
-        <v>40260</v>
+        <v>37710</v>
       </c>
       <c r="G24" t="n">
-        <v>39406</v>
+        <v>1262012.032</v>
       </c>
       <c r="H24" t="n">
-        <v>38551</v>
+        <v>1296146.048</v>
       </c>
       <c r="I24" t="n">
-        <v>37710</v>
+        <v>1328748.032</v>
       </c>
       <c r="J24" t="n">
-        <v>1262012.032</v>
+        <v>1426681.984</v>
       </c>
       <c r="K24" t="n">
-        <v>1296146.048</v>
+        <v>1478535.04</v>
       </c>
       <c r="L24" t="n">
-        <v>1328748.032</v>
+        <v>1542049.024</v>
       </c>
       <c r="M24" t="n">
-        <v>1426681.984</v>
+        <v>1610736</v>
       </c>
       <c r="N24" t="n">
-        <v>1478535.04</v>
+        <v>1695363.968</v>
       </c>
       <c r="O24" t="n">
-        <v>1542049.024</v>
+        <v>1792178.944</v>
       </c>
       <c r="P24" t="n">
-        <v>1610736</v>
+        <v>1888642.048</v>
       </c>
       <c r="Q24" t="n">
-        <v>1695363.968</v>
+        <v>1966212.992</v>
       </c>
       <c r="R24" t="n">
-        <v>1792178.944</v>
+        <v>2068817.024</v>
       </c>
       <c r="S24" t="n">
-        <v>1888642.048</v>
+        <v>2103105.024</v>
       </c>
       <c r="T24" t="n">
-        <v>1966212.992</v>
+        <v>2167588.096</v>
       </c>
       <c r="U24" t="n">
-        <v>2068817.024</v>
+        <v>2237982.976</v>
       </c>
       <c r="V24" t="n">
-        <v>2103105.024</v>
+        <v>2324205.056</v>
       </c>
       <c r="W24" t="n">
-        <v>2167588.096</v>
+        <v>2336656.896</v>
       </c>
       <c r="X24" t="n">
-        <v>2237982.976</v>
+        <v>2388363.008</v>
       </c>
       <c r="Y24" t="n">
-        <v>2324205.056</v>
+        <v>2461355.008</v>
       </c>
       <c r="Z24" t="n">
-        <v>2336656.896</v>
+        <v>2509850.112</v>
       </c>
       <c r="AA24" t="n">
-        <v>2388363.008</v>
+        <v>2525965.056</v>
       </c>
       <c r="AB24" t="n">
-        <v>2461355.008</v>
+        <v>2604645.888</v>
       </c>
       <c r="AC24" t="n">
-        <v>2509850.112</v>
+        <v>2630501.888</v>
       </c>
       <c r="AD24" t="n">
-        <v>2525965.056</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>2604645.888</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>2630501.888</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
         <v>0</v>
@@ -4984,61 +4984,61 @@
         <v>0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0</v>
+        <v>5451325.952</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>5426236.928</v>
       </c>
       <c r="AS24" t="n">
-        <v>0</v>
+        <v>5769614.848</v>
       </c>
       <c r="AT24" t="n">
-        <v>5451325.952</v>
+        <v>5603267.072</v>
       </c>
       <c r="AU24" t="n">
-        <v>5426236.928</v>
+        <v>5531105.792</v>
       </c>
       <c r="AV24" t="n">
-        <v>5769614.848</v>
+        <v>5559926.784</v>
       </c>
       <c r="AW24" t="n">
-        <v>5603267.072</v>
+        <v>5514956.8</v>
       </c>
       <c r="AX24" t="n">
-        <v>5531105.792</v>
+        <v>5353506.816</v>
       </c>
       <c r="AY24" t="n">
-        <v>5559926.784</v>
+        <v>5103034.88</v>
       </c>
       <c r="AZ24" t="n">
-        <v>5514956.8</v>
+        <v>5263182.848</v>
       </c>
       <c r="BA24" t="n">
-        <v>5353506.816</v>
+        <v>4916392.96</v>
       </c>
       <c r="BB24" t="n">
-        <v>5103034.88</v>
+        <v>4824077.824</v>
       </c>
       <c r="BC24" t="n">
-        <v>5263182.848</v>
+        <v>4695080.96</v>
       </c>
       <c r="BD24" t="n">
-        <v>4916392.96</v>
+        <v>4700327.936</v>
       </c>
       <c r="BE24" t="n">
-        <v>4824077.824</v>
+        <v>3083579.904</v>
       </c>
       <c r="BF24" t="n">
-        <v>4695080.96</v>
+        <v>3083852.032</v>
       </c>
       <c r="BG24" t="n">
-        <v>4700327.936</v>
+        <v>2966594.048</v>
       </c>
       <c r="BH24" t="n">
-        <v>3083579.904</v>
+        <v>2368090.88</v>
       </c>
       <c r="BI24" t="n">
-        <v>3083852.032</v>
+        <v>2423387.904</v>
       </c>
     </row>
     <row r="25">
@@ -5235,97 +5235,97 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2012288</v>
+        <v>2083970.048</v>
       </c>
       <c r="C26" t="n">
-        <v>2050398.976</v>
+        <v>2063975.04</v>
       </c>
       <c r="D26" t="n">
-        <v>2074043.008</v>
+        <v>2061795.968</v>
       </c>
       <c r="E26" t="n">
-        <v>2083970.048</v>
+        <v>2101806.976</v>
       </c>
       <c r="F26" t="n">
-        <v>2063975.04</v>
+        <v>2112157.952</v>
       </c>
       <c r="G26" t="n">
-        <v>2061795.968</v>
+        <v>2107474.048</v>
       </c>
       <c r="H26" t="n">
-        <v>2101806.976</v>
+        <v>2165723.904</v>
       </c>
       <c r="I26" t="n">
-        <v>2112157.952</v>
+        <v>2162857.984</v>
       </c>
       <c r="J26" t="n">
-        <v>2107474.048</v>
+        <v>2284869.12</v>
       </c>
       <c r="K26" t="n">
-        <v>2165723.904</v>
+        <v>2320020.992</v>
       </c>
       <c r="L26" t="n">
-        <v>2162857.984</v>
+        <v>2416745.984</v>
       </c>
       <c r="M26" t="n">
-        <v>2284869.12</v>
+        <v>2519312.896</v>
       </c>
       <c r="N26" t="n">
-        <v>2320020.992</v>
+        <v>2671747.072</v>
       </c>
       <c r="O26" t="n">
-        <v>2416745.984</v>
+        <v>2736278.016</v>
       </c>
       <c r="P26" t="n">
-        <v>2519312.896</v>
+        <v>2826309.888</v>
       </c>
       <c r="Q26" t="n">
-        <v>2671747.072</v>
+        <v>2966221.056</v>
       </c>
       <c r="R26" t="n">
-        <v>2736278.016</v>
+        <v>3303708.928</v>
       </c>
       <c r="S26" t="n">
-        <v>2826309.888</v>
+        <v>3492387.072</v>
       </c>
       <c r="T26" t="n">
-        <v>2966221.056</v>
+        <v>3542022.912</v>
       </c>
       <c r="U26" t="n">
-        <v>3303708.928</v>
+        <v>3681099.008</v>
       </c>
       <c r="V26" t="n">
-        <v>3492387.072</v>
+        <v>4052186.88</v>
       </c>
       <c r="W26" t="n">
-        <v>3542022.912</v>
+        <v>4253408</v>
       </c>
       <c r="X26" t="n">
-        <v>3681099.008</v>
+        <v>4306918.912</v>
       </c>
       <c r="Y26" t="n">
-        <v>4052186.88</v>
+        <v>4345488.896</v>
       </c>
       <c r="Z26" t="n">
-        <v>4253408</v>
+        <v>4383037.952</v>
       </c>
       <c r="AA26" t="n">
-        <v>4306918.912</v>
+        <v>4640431.104</v>
       </c>
       <c r="AB26" t="n">
-        <v>4345488.896</v>
+        <v>4748097.024</v>
       </c>
       <c r="AC26" t="n">
-        <v>4383037.952</v>
+        <v>4791583.744</v>
       </c>
       <c r="AD26" t="n">
-        <v>4640431.104</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>4748097.024</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>4791583.744</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
         <v>0</v>
@@ -5358,61 +5358,61 @@
         <v>0</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0</v>
+        <v>8471588.864</v>
       </c>
       <c r="AR26" t="n">
-        <v>0</v>
+        <v>8526295.039999999</v>
       </c>
       <c r="AS26" t="n">
-        <v>0</v>
+        <v>8878397.439999999</v>
       </c>
       <c r="AT26" t="n">
-        <v>8471588.864</v>
+        <v>8876304.384</v>
       </c>
       <c r="AU26" t="n">
-        <v>8526295.039999999</v>
+        <v>8832163.84</v>
       </c>
       <c r="AV26" t="n">
-        <v>8878397.439999999</v>
+        <v>8869840.896</v>
       </c>
       <c r="AW26" t="n">
-        <v>8876304.384</v>
+        <v>8863760.384</v>
       </c>
       <c r="AX26" t="n">
-        <v>8832163.84</v>
+        <v>8622287.872</v>
       </c>
       <c r="AY26" t="n">
-        <v>8869840.896</v>
+        <v>8717650.944</v>
       </c>
       <c r="AZ26" t="n">
-        <v>8863760.384</v>
+        <v>8838134.784</v>
       </c>
       <c r="BA26" t="n">
-        <v>8622287.872</v>
+        <v>8515611.136</v>
       </c>
       <c r="BB26" t="n">
-        <v>8717650.944</v>
+        <v>8444973.056</v>
       </c>
       <c r="BC26" t="n">
-        <v>8838134.784</v>
+        <v>8430943.232000001</v>
       </c>
       <c r="BD26" t="n">
-        <v>8515611.136</v>
+        <v>8422794.24</v>
       </c>
       <c r="BE26" t="n">
-        <v>8444973.056</v>
+        <v>6579949.056</v>
       </c>
       <c r="BF26" t="n">
-        <v>8430943.232000001</v>
+        <v>6558272</v>
       </c>
       <c r="BG26" t="n">
-        <v>8422794.24</v>
+        <v>6583819.776</v>
       </c>
       <c r="BH26" t="n">
-        <v>6579949.056</v>
+        <v>5581230.08</v>
       </c>
       <c r="BI26" t="n">
-        <v>6558272</v>
+        <v>5681397.76</v>
       </c>
     </row>
     <row r="27">
@@ -5422,97 +5422,97 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>148016.992</v>
+        <v>150683.008</v>
       </c>
       <c r="C27" t="n">
-        <v>159230</v>
+        <v>154256.992</v>
       </c>
       <c r="D27" t="n">
-        <v>170908</v>
+        <v>157644.992</v>
       </c>
       <c r="E27" t="n">
-        <v>150683.008</v>
+        <v>159732</v>
       </c>
       <c r="F27" t="n">
-        <v>154256.992</v>
+        <v>175942</v>
       </c>
       <c r="G27" t="n">
-        <v>157644.992</v>
+        <v>217466</v>
       </c>
       <c r="H27" t="n">
-        <v>159732</v>
+        <v>272503.008</v>
       </c>
       <c r="I27" t="n">
-        <v>175942</v>
+        <v>291044</v>
       </c>
       <c r="J27" t="n">
-        <v>217466</v>
+        <v>242712.992</v>
       </c>
       <c r="K27" t="n">
-        <v>272503.008</v>
+        <v>265636</v>
       </c>
       <c r="L27" t="n">
-        <v>291044</v>
+        <v>319976.992</v>
       </c>
       <c r="M27" t="n">
-        <v>242712.992</v>
+        <v>299052</v>
       </c>
       <c r="N27" t="n">
-        <v>265636</v>
+        <v>228386</v>
       </c>
       <c r="O27" t="n">
-        <v>319976.992</v>
+        <v>214244</v>
       </c>
       <c r="P27" t="n">
-        <v>299052</v>
+        <v>211479.008</v>
       </c>
       <c r="Q27" t="n">
-        <v>228386</v>
+        <v>254608.992</v>
       </c>
       <c r="R27" t="n">
-        <v>214244</v>
+        <v>275232.992</v>
       </c>
       <c r="S27" t="n">
-        <v>211479.008</v>
+        <v>424745.984</v>
       </c>
       <c r="T27" t="n">
-        <v>254608.992</v>
+        <v>423980.992</v>
       </c>
       <c r="U27" t="n">
-        <v>275232.992</v>
+        <v>323702.016</v>
       </c>
       <c r="V27" t="n">
-        <v>424745.984</v>
+        <v>304472.992</v>
       </c>
       <c r="W27" t="n">
-        <v>423980.992</v>
+        <v>383188.992</v>
       </c>
       <c r="X27" t="n">
-        <v>323702.016</v>
+        <v>370743.008</v>
       </c>
       <c r="Y27" t="n">
-        <v>304472.992</v>
+        <v>313856</v>
       </c>
       <c r="Z27" t="n">
-        <v>383188.992</v>
+        <v>311553.984</v>
       </c>
       <c r="AA27" t="n">
-        <v>370743.008</v>
+        <v>368556</v>
       </c>
       <c r="AB27" t="n">
-        <v>313856</v>
+        <v>349844.992</v>
       </c>
       <c r="AC27" t="n">
-        <v>311553.984</v>
+        <v>328364</v>
       </c>
       <c r="AD27" t="n">
-        <v>368556</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>349844.992</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>328364</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
         <v>0</v>
@@ -5545,61 +5545,61 @@
         <v>0</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0</v>
+        <v>1117330.944</v>
       </c>
       <c r="AR27" t="n">
-        <v>0</v>
+        <v>948422.0159999999</v>
       </c>
       <c r="AS27" t="n">
-        <v>0</v>
+        <v>1112886.016</v>
       </c>
       <c r="AT27" t="n">
-        <v>1117330.944</v>
+        <v>1260788.992</v>
       </c>
       <c r="AU27" t="n">
-        <v>948422.0159999999</v>
+        <v>1236733.056</v>
       </c>
       <c r="AV27" t="n">
-        <v>1112886.016</v>
+        <v>1257897.984</v>
       </c>
       <c r="AW27" t="n">
-        <v>1260788.992</v>
+        <v>1173419.008</v>
       </c>
       <c r="AX27" t="n">
-        <v>1236733.056</v>
+        <v>1214272</v>
       </c>
       <c r="AY27" t="n">
-        <v>1257897.984</v>
+        <v>1271538.048</v>
       </c>
       <c r="AZ27" t="n">
-        <v>1173419.008</v>
+        <v>1252288</v>
       </c>
       <c r="BA27" t="n">
-        <v>1214272</v>
+        <v>1212270.976</v>
       </c>
       <c r="BB27" t="n">
-        <v>1271538.048</v>
+        <v>1013889.024</v>
       </c>
       <c r="BC27" t="n">
-        <v>1252288</v>
+        <v>1036009.984</v>
       </c>
       <c r="BD27" t="n">
-        <v>1212270.976</v>
+        <v>1100416</v>
       </c>
       <c r="BE27" t="n">
-        <v>1013889.024</v>
+        <v>1221636.992</v>
       </c>
       <c r="BF27" t="n">
-        <v>1036009.984</v>
+        <v>1209387.008</v>
       </c>
       <c r="BG27" t="n">
-        <v>1100416</v>
+        <v>1388999.04</v>
       </c>
       <c r="BH27" t="n">
-        <v>1221636.992</v>
+        <v>1250615.04</v>
       </c>
       <c r="BI27" t="n">
-        <v>1209387.008</v>
+        <v>1114867.968</v>
       </c>
     </row>
     <row r="28">
@@ -5633,73 +5633,73 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>28697</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>25868</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>37257</v>
       </c>
       <c r="M28" t="n">
-        <v>28697</v>
+        <v>40813</v>
       </c>
       <c r="N28" t="n">
-        <v>25868</v>
+        <v>64476</v>
       </c>
       <c r="O28" t="n">
-        <v>37257</v>
+        <v>30069</v>
       </c>
       <c r="P28" t="n">
-        <v>40813</v>
+        <v>41080</v>
       </c>
       <c r="Q28" t="n">
-        <v>64476</v>
+        <v>57720</v>
       </c>
       <c r="R28" t="n">
-        <v>30069</v>
+        <v>72118</v>
       </c>
       <c r="S28" t="n">
-        <v>41080</v>
+        <v>44651</v>
       </c>
       <c r="T28" t="n">
-        <v>57720</v>
+        <v>54260</v>
       </c>
       <c r="U28" t="n">
-        <v>72118</v>
+        <v>72170</v>
       </c>
       <c r="V28" t="n">
-        <v>44651</v>
+        <v>91620</v>
       </c>
       <c r="W28" t="n">
-        <v>54260</v>
+        <v>47584</v>
       </c>
       <c r="X28" t="n">
-        <v>72170</v>
+        <v>58831</v>
       </c>
       <c r="Y28" t="n">
-        <v>91620</v>
+        <v>67421</v>
       </c>
       <c r="Z28" t="n">
-        <v>47584</v>
+        <v>79271</v>
       </c>
       <c r="AA28" t="n">
-        <v>58831</v>
+        <v>52157</v>
       </c>
       <c r="AB28" t="n">
-        <v>67421</v>
+        <v>59591</v>
       </c>
       <c r="AC28" t="n">
-        <v>79271</v>
+        <v>71746</v>
       </c>
       <c r="AD28" t="n">
-        <v>52157</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>59591</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>71746</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
         <v>0</v>
@@ -5732,61 +5732,61 @@
         <v>0</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0</v>
+        <v>100614</v>
       </c>
       <c r="AR28" t="n">
-        <v>0</v>
+        <v>120446</v>
       </c>
       <c r="AS28" t="n">
-        <v>0</v>
+        <v>114169</v>
       </c>
       <c r="AT28" t="n">
-        <v>100614</v>
+        <v>77311</v>
       </c>
       <c r="AU28" t="n">
-        <v>120446</v>
+        <v>107384</v>
       </c>
       <c r="AV28" t="n">
-        <v>114169</v>
+        <v>119692</v>
       </c>
       <c r="AW28" t="n">
-        <v>77311</v>
+        <v>89169</v>
       </c>
       <c r="AX28" t="n">
-        <v>107384</v>
+        <v>72888</v>
       </c>
       <c r="AY28" t="n">
-        <v>119692</v>
+        <v>96025</v>
       </c>
       <c r="AZ28" t="n">
-        <v>89169</v>
+        <v>121009</v>
       </c>
       <c r="BA28" t="n">
-        <v>72888</v>
+        <v>115362</v>
       </c>
       <c r="BB28" t="n">
-        <v>96025</v>
+        <v>104443</v>
       </c>
       <c r="BC28" t="n">
-        <v>121009</v>
+        <v>114367</v>
       </c>
       <c r="BD28" t="n">
-        <v>115362</v>
+        <v>148319.008</v>
       </c>
       <c r="BE28" t="n">
-        <v>104443</v>
+        <v>137036.992</v>
       </c>
       <c r="BF28" t="n">
-        <v>114367</v>
+        <v>105368</v>
       </c>
       <c r="BG28" t="n">
-        <v>148319.008</v>
+        <v>164095.008</v>
       </c>
       <c r="BH28" t="n">
-        <v>137036.992</v>
+        <v>158883.008</v>
       </c>
       <c r="BI28" t="n">
-        <v>105368</v>
+        <v>104991</v>
       </c>
     </row>
     <row r="29">
@@ -5796,97 +5796,97 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>38988</v>
+        <v>30886</v>
       </c>
       <c r="C29" t="n">
-        <v>40793</v>
+        <v>44477</v>
       </c>
       <c r="D29" t="n">
-        <v>41318</v>
+        <v>46461</v>
       </c>
       <c r="E29" t="n">
-        <v>30886</v>
+        <v>26545</v>
       </c>
       <c r="F29" t="n">
-        <v>44477</v>
+        <v>35783</v>
       </c>
       <c r="G29" t="n">
-        <v>46461</v>
+        <v>41195</v>
       </c>
       <c r="H29" t="n">
-        <v>26545</v>
+        <v>51874</v>
       </c>
       <c r="I29" t="n">
-        <v>35783</v>
+        <v>43166</v>
       </c>
       <c r="J29" t="n">
-        <v>41195</v>
+        <v>51613</v>
       </c>
       <c r="K29" t="n">
-        <v>51874</v>
+        <v>53212</v>
       </c>
       <c r="L29" t="n">
-        <v>43166</v>
+        <v>82916</v>
       </c>
       <c r="M29" t="n">
-        <v>51613</v>
+        <v>60776</v>
       </c>
       <c r="N29" t="n">
-        <v>53212</v>
+        <v>41747</v>
       </c>
       <c r="O29" t="n">
-        <v>82916</v>
+        <v>91238</v>
       </c>
       <c r="P29" t="n">
-        <v>60776</v>
+        <v>73295</v>
       </c>
       <c r="Q29" t="n">
-        <v>41747</v>
+        <v>97108</v>
       </c>
       <c r="R29" t="n">
-        <v>91238</v>
+        <v>94329</v>
       </c>
       <c r="S29" t="n">
-        <v>73295</v>
+        <v>79825</v>
       </c>
       <c r="T29" t="n">
-        <v>97108</v>
+        <v>97378</v>
       </c>
       <c r="U29" t="n">
-        <v>94329</v>
+        <v>109031</v>
       </c>
       <c r="V29" t="n">
-        <v>79825</v>
+        <v>100469</v>
       </c>
       <c r="W29" t="n">
-        <v>97378</v>
+        <v>103887</v>
       </c>
       <c r="X29" t="n">
-        <v>109031</v>
+        <v>125505</v>
       </c>
       <c r="Y29" t="n">
-        <v>100469</v>
+        <v>111769</v>
       </c>
       <c r="Z29" t="n">
-        <v>103887</v>
+        <v>130650</v>
       </c>
       <c r="AA29" t="n">
-        <v>125505</v>
+        <v>93799</v>
       </c>
       <c r="AB29" t="n">
-        <v>111769</v>
+        <v>111916</v>
       </c>
       <c r="AC29" t="n">
-        <v>130650</v>
+        <v>105671</v>
       </c>
       <c r="AD29" t="n">
-        <v>93799</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>111916</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>105671</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
         <v>0</v>
@@ -5919,61 +5919,61 @@
         <v>0</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0</v>
+        <v>406118.016</v>
       </c>
       <c r="AR29" t="n">
-        <v>0</v>
+        <v>295190.016</v>
       </c>
       <c r="AS29" t="n">
-        <v>0</v>
+        <v>333191.008</v>
       </c>
       <c r="AT29" t="n">
-        <v>406118.016</v>
+        <v>304712.992</v>
       </c>
       <c r="AU29" t="n">
-        <v>295190.016</v>
+        <v>323848.992</v>
       </c>
       <c r="AV29" t="n">
-        <v>333191.008</v>
+        <v>358598.016</v>
       </c>
       <c r="AW29" t="n">
-        <v>304712.992</v>
+        <v>345403.008</v>
       </c>
       <c r="AX29" t="n">
-        <v>323848.992</v>
+        <v>313031.008</v>
       </c>
       <c r="AY29" t="n">
-        <v>358598.016</v>
+        <v>409447.008</v>
       </c>
       <c r="AZ29" t="n">
-        <v>345403.008</v>
+        <v>381556</v>
       </c>
       <c r="BA29" t="n">
-        <v>313031.008</v>
+        <v>375803.008</v>
       </c>
       <c r="BB29" t="n">
-        <v>409447.008</v>
+        <v>322558.016</v>
       </c>
       <c r="BC29" t="n">
-        <v>381556</v>
+        <v>360324.992</v>
       </c>
       <c r="BD29" t="n">
-        <v>375803.008</v>
+        <v>370148.992</v>
       </c>
       <c r="BE29" t="n">
-        <v>322558.016</v>
+        <v>422456</v>
       </c>
       <c r="BF29" t="n">
-        <v>360324.992</v>
+        <v>398460</v>
       </c>
       <c r="BG29" t="n">
-        <v>370148.992</v>
+        <v>507656</v>
       </c>
       <c r="BH29" t="n">
-        <v>422456</v>
+        <v>504360.992</v>
       </c>
       <c r="BI29" t="n">
-        <v>398460</v>
+        <v>454083.008</v>
       </c>
     </row>
     <row r="30">
@@ -5983,97 +5983,97 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19122</v>
+        <v>12700</v>
       </c>
       <c r="C30" t="n">
-        <v>19412</v>
+        <v>11076</v>
       </c>
       <c r="D30" t="n">
-        <v>23062</v>
+        <v>11486</v>
       </c>
       <c r="E30" t="n">
-        <v>12700</v>
+        <v>11397</v>
       </c>
       <c r="F30" t="n">
-        <v>11076</v>
+        <v>9551</v>
       </c>
       <c r="G30" t="n">
-        <v>11486</v>
+        <v>10168</v>
       </c>
       <c r="H30" t="n">
-        <v>11397</v>
+        <v>12434</v>
       </c>
       <c r="I30" t="n">
-        <v>9551</v>
+        <v>7097</v>
       </c>
       <c r="J30" t="n">
-        <v>10168</v>
+        <v>9029</v>
       </c>
       <c r="K30" t="n">
-        <v>12434</v>
+        <v>8921</v>
       </c>
       <c r="L30" t="n">
-        <v>7097</v>
+        <v>7622</v>
       </c>
       <c r="M30" t="n">
-        <v>9029</v>
+        <v>5936</v>
       </c>
       <c r="N30" t="n">
-        <v>8921</v>
+        <v>11285</v>
       </c>
       <c r="O30" t="n">
-        <v>7622</v>
+        <v>5339</v>
       </c>
       <c r="P30" t="n">
-        <v>5936</v>
+        <v>5771</v>
       </c>
       <c r="Q30" t="n">
-        <v>11285</v>
+        <v>7180</v>
       </c>
       <c r="R30" t="n">
-        <v>5339</v>
+        <v>16754</v>
       </c>
       <c r="S30" t="n">
-        <v>5771</v>
+        <v>11167</v>
       </c>
       <c r="T30" t="n">
-        <v>7180</v>
+        <v>11082</v>
       </c>
       <c r="U30" t="n">
-        <v>16754</v>
+        <v>17916</v>
       </c>
       <c r="V30" t="n">
-        <v>11167</v>
+        <v>19754</v>
       </c>
       <c r="W30" t="n">
-        <v>11082</v>
+        <v>12787</v>
       </c>
       <c r="X30" t="n">
-        <v>17916</v>
+        <v>25180</v>
       </c>
       <c r="Y30" t="n">
-        <v>19754</v>
+        <v>15367</v>
       </c>
       <c r="Z30" t="n">
-        <v>12787</v>
+        <v>15641</v>
       </c>
       <c r="AA30" t="n">
-        <v>25180</v>
+        <v>15961</v>
       </c>
       <c r="AB30" t="n">
-        <v>15367</v>
+        <v>17806</v>
       </c>
       <c r="AC30" t="n">
-        <v>15641</v>
+        <v>32827</v>
       </c>
       <c r="AD30" t="n">
-        <v>15961</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>17806</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>32827</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
         <v>0</v>
@@ -6106,61 +6106,61 @@
         <v>0</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0</v>
+        <v>11466</v>
       </c>
       <c r="AR30" t="n">
-        <v>0</v>
+        <v>10259</v>
       </c>
       <c r="AS30" t="n">
-        <v>0</v>
+        <v>10847</v>
       </c>
       <c r="AT30" t="n">
-        <v>11466</v>
+        <v>14526</v>
       </c>
       <c r="AU30" t="n">
-        <v>10259</v>
+        <v>19953</v>
       </c>
       <c r="AV30" t="n">
-        <v>10847</v>
+        <v>17011</v>
       </c>
       <c r="AW30" t="n">
-        <v>14526</v>
+        <v>12435</v>
       </c>
       <c r="AX30" t="n">
-        <v>19953</v>
+        <v>13453</v>
       </c>
       <c r="AY30" t="n">
-        <v>17011</v>
+        <v>11261</v>
       </c>
       <c r="AZ30" t="n">
-        <v>12435</v>
+        <v>8877</v>
       </c>
       <c r="BA30" t="n">
-        <v>13453</v>
+        <v>12951</v>
       </c>
       <c r="BB30" t="n">
-        <v>11261</v>
+        <v>17555</v>
       </c>
       <c r="BC30" t="n">
-        <v>8877</v>
+        <v>18508</v>
       </c>
       <c r="BD30" t="n">
-        <v>12951</v>
+        <v>19208</v>
       </c>
       <c r="BE30" t="n">
-        <v>17555</v>
+        <v>45226</v>
       </c>
       <c r="BF30" t="n">
-        <v>18508</v>
+        <v>46295</v>
       </c>
       <c r="BG30" t="n">
-        <v>19208</v>
+        <v>44813</v>
       </c>
       <c r="BH30" t="n">
-        <v>45226</v>
+        <v>64200</v>
       </c>
       <c r="BI30" t="n">
-        <v>46295</v>
+        <v>25432</v>
       </c>
     </row>
     <row r="31">
@@ -6185,22 +6185,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>49821</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>81532</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>95044</v>
       </c>
       <c r="J31" t="n">
-        <v>49821</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>81532</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>95044</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -6332,22 +6332,22 @@
         <v>0</v>
       </c>
       <c r="BD31" t="n">
-        <v>0</v>
+        <v>21201</v>
       </c>
       <c r="BE31" t="n">
-        <v>0</v>
+        <v>15843</v>
       </c>
       <c r="BF31" t="n">
-        <v>0</v>
+        <v>55004</v>
       </c>
       <c r="BG31" t="n">
-        <v>21201</v>
+        <v>54307</v>
       </c>
       <c r="BH31" t="n">
-        <v>15843</v>
+        <v>12314</v>
       </c>
       <c r="BI31" t="n">
-        <v>55004</v>
+        <v>44683</v>
       </c>
     </row>
     <row r="32">
@@ -6357,79 +6357,79 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>14458</v>
+        <v>41032</v>
       </c>
       <c r="C32" t="n">
-        <v>20308</v>
+        <v>38782</v>
       </c>
       <c r="D32" t="n">
-        <v>25449</v>
+        <v>38295</v>
       </c>
       <c r="E32" t="n">
-        <v>41032</v>
+        <v>56216</v>
       </c>
       <c r="F32" t="n">
-        <v>38782</v>
+        <v>51460</v>
       </c>
       <c r="G32" t="n">
-        <v>38295</v>
+        <v>28792</v>
       </c>
       <c r="H32" t="n">
-        <v>56216</v>
+        <v>31930</v>
       </c>
       <c r="I32" t="n">
-        <v>51460</v>
+        <v>32611</v>
       </c>
       <c r="J32" t="n">
-        <v>28792</v>
+        <v>62669</v>
       </c>
       <c r="K32" t="n">
-        <v>31930</v>
+        <v>86556</v>
       </c>
       <c r="L32" t="n">
-        <v>32611</v>
+        <v>104177</v>
       </c>
       <c r="M32" t="n">
-        <v>62669</v>
+        <v>93741</v>
       </c>
       <c r="N32" t="n">
-        <v>86556</v>
+        <v>37123</v>
       </c>
       <c r="O32" t="n">
-        <v>104177</v>
+        <v>22453</v>
       </c>
       <c r="P32" t="n">
-        <v>93741</v>
+        <v>25765</v>
       </c>
       <c r="Q32" t="n">
-        <v>37123</v>
+        <v>26252</v>
       </c>
       <c r="R32" t="n">
-        <v>22453</v>
+        <v>23533</v>
       </c>
       <c r="S32" t="n">
-        <v>25765</v>
+        <v>151519.008</v>
       </c>
       <c r="T32" t="n">
-        <v>26252</v>
+        <v>144870</v>
       </c>
       <c r="U32" t="n">
-        <v>23533</v>
+        <v>11634</v>
       </c>
       <c r="V32" t="n">
-        <v>151519.008</v>
+        <v>14113</v>
       </c>
       <c r="W32" t="n">
-        <v>144870</v>
+        <v>12056</v>
       </c>
       <c r="X32" t="n">
-        <v>11634</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>14113</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>12056</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
@@ -6731,97 +6731,97 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>55482</v>
+        <v>58266</v>
       </c>
       <c r="C34" t="n">
-        <v>58750</v>
+        <v>52123</v>
       </c>
       <c r="D34" t="n">
-        <v>59414</v>
+        <v>55863</v>
       </c>
       <c r="E34" t="n">
-        <v>58266</v>
+        <v>59839</v>
       </c>
       <c r="F34" t="n">
-        <v>52123</v>
+        <v>71658</v>
       </c>
       <c r="G34" t="n">
-        <v>55863</v>
+        <v>78010</v>
       </c>
       <c r="H34" t="n">
-        <v>59839</v>
+        <v>84907</v>
       </c>
       <c r="I34" t="n">
-        <v>71658</v>
+        <v>100069</v>
       </c>
       <c r="J34" t="n">
-        <v>78010</v>
+        <v>83783</v>
       </c>
       <c r="K34" t="n">
-        <v>84907</v>
+        <v>85255</v>
       </c>
       <c r="L34" t="n">
-        <v>100069</v>
+        <v>82259</v>
       </c>
       <c r="M34" t="n">
-        <v>83783</v>
+        <v>90717</v>
       </c>
       <c r="N34" t="n">
-        <v>85255</v>
+        <v>64072</v>
       </c>
       <c r="O34" t="n">
-        <v>82259</v>
+        <v>63042</v>
       </c>
       <c r="P34" t="n">
-        <v>90717</v>
+        <v>64352</v>
       </c>
       <c r="Q34" t="n">
-        <v>64072</v>
+        <v>66287</v>
       </c>
       <c r="R34" t="n">
-        <v>63042</v>
+        <v>68499</v>
       </c>
       <c r="S34" t="n">
-        <v>64352</v>
+        <v>137584</v>
       </c>
       <c r="T34" t="n">
-        <v>66287</v>
+        <v>115647</v>
       </c>
       <c r="U34" t="n">
-        <v>68499</v>
+        <v>112951</v>
       </c>
       <c r="V34" t="n">
-        <v>137584</v>
+        <v>53851</v>
       </c>
       <c r="W34" t="n">
-        <v>115647</v>
+        <v>181284</v>
       </c>
       <c r="X34" t="n">
-        <v>112951</v>
+        <v>136132</v>
       </c>
       <c r="Y34" t="n">
-        <v>53851</v>
+        <v>94863</v>
       </c>
       <c r="Z34" t="n">
-        <v>181284</v>
+        <v>47122</v>
       </c>
       <c r="AA34" t="n">
-        <v>136132</v>
+        <v>179572</v>
       </c>
       <c r="AB34" t="n">
-        <v>94863</v>
+        <v>134006</v>
       </c>
       <c r="AC34" t="n">
-        <v>47122</v>
+        <v>92710</v>
       </c>
       <c r="AD34" t="n">
-        <v>179572</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>134006</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>92710</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
         <v>0</v>
@@ -6854,61 +6854,61 @@
         <v>0</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0</v>
+        <v>599132.992</v>
       </c>
       <c r="AR34" t="n">
-        <v>0</v>
+        <v>522527.008</v>
       </c>
       <c r="AS34" t="n">
-        <v>0</v>
+        <v>654678.976</v>
       </c>
       <c r="AT34" t="n">
-        <v>599132.992</v>
+        <v>864238.976</v>
       </c>
       <c r="AU34" t="n">
-        <v>522527.008</v>
+        <v>785547.008</v>
       </c>
       <c r="AV34" t="n">
-        <v>654678.976</v>
+        <v>762596.992</v>
       </c>
       <c r="AW34" t="n">
-        <v>864238.976</v>
+        <v>726412.032</v>
       </c>
       <c r="AX34" t="n">
-        <v>785547.008</v>
+        <v>814899.968</v>
       </c>
       <c r="AY34" t="n">
-        <v>762596.992</v>
+        <v>754804.992</v>
       </c>
       <c r="AZ34" t="n">
-        <v>726412.032</v>
+        <v>740846.0159999999</v>
       </c>
       <c r="BA34" t="n">
-        <v>814899.968</v>
+        <v>708155.008</v>
       </c>
       <c r="BB34" t="n">
-        <v>754804.992</v>
+        <v>569332.992</v>
       </c>
       <c r="BC34" t="n">
-        <v>740846.0159999999</v>
+        <v>542809.9840000001</v>
       </c>
       <c r="BD34" t="n">
-        <v>708155.008</v>
+        <v>541539.008</v>
       </c>
       <c r="BE34" t="n">
-        <v>569332.992</v>
+        <v>601075.008</v>
       </c>
       <c r="BF34" t="n">
-        <v>542809.9840000001</v>
+        <v>604259.968</v>
       </c>
       <c r="BG34" t="n">
-        <v>541539.008</v>
+        <v>618128</v>
       </c>
       <c r="BH34" t="n">
-        <v>601075.008</v>
+        <v>510856.992</v>
       </c>
       <c r="BI34" t="n">
-        <v>604259.968</v>
+        <v>485679.008</v>
       </c>
     </row>
     <row r="35">
@@ -6918,97 +6918,97 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19967</v>
+        <v>7799</v>
       </c>
       <c r="C35" t="n">
-        <v>19967</v>
+        <v>7799</v>
       </c>
       <c r="D35" t="n">
-        <v>21665</v>
+        <v>5540</v>
       </c>
       <c r="E35" t="n">
-        <v>7799</v>
+        <v>5735</v>
       </c>
       <c r="F35" t="n">
-        <v>7799</v>
+        <v>7490</v>
       </c>
       <c r="G35" t="n">
-        <v>5540</v>
+        <v>9480</v>
       </c>
       <c r="H35" t="n">
-        <v>5735</v>
+        <v>9826</v>
       </c>
       <c r="I35" t="n">
-        <v>7490</v>
+        <v>13057</v>
       </c>
       <c r="J35" t="n">
-        <v>9480</v>
+        <v>6922</v>
       </c>
       <c r="K35" t="n">
-        <v>9826</v>
+        <v>5824</v>
       </c>
       <c r="L35" t="n">
-        <v>13057</v>
+        <v>5746</v>
       </c>
       <c r="M35" t="n">
-        <v>6922</v>
+        <v>7069</v>
       </c>
       <c r="N35" t="n">
-        <v>5824</v>
+        <v>9683</v>
       </c>
       <c r="O35" t="n">
-        <v>5746</v>
+        <v>2103</v>
       </c>
       <c r="P35" t="n">
-        <v>7069</v>
+        <v>1216</v>
       </c>
       <c r="Q35" t="n">
-        <v>9683</v>
+        <v>62</v>
       </c>
       <c r="R35" t="n">
-        <v>2103</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1216</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>62</v>
+        <v>744</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>24666</v>
       </c>
       <c r="W35" t="n">
-        <v>744</v>
+        <v>25591</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>25095</v>
       </c>
       <c r="Y35" t="n">
-        <v>24666</v>
+        <v>24436</v>
       </c>
       <c r="Z35" t="n">
-        <v>25591</v>
+        <v>38870</v>
       </c>
       <c r="AA35" t="n">
-        <v>25095</v>
+        <v>27067</v>
       </c>
       <c r="AB35" t="n">
-        <v>24436</v>
+        <v>26526</v>
       </c>
       <c r="AC35" t="n">
-        <v>38870</v>
+        <v>25410</v>
       </c>
       <c r="AD35" t="n">
-        <v>27067</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>26526</v>
+        <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>25410</v>
+        <v>0</v>
       </c>
       <c r="AG35" t="n">
         <v>0</v>
@@ -7292,97 +7292,97 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1981926.016</v>
+        <v>2004379.008</v>
       </c>
       <c r="C37" t="n">
-        <v>1979681.024</v>
+        <v>2007097.984</v>
       </c>
       <c r="D37" t="n">
-        <v>1982936.064</v>
+        <v>1996784</v>
       </c>
       <c r="E37" t="n">
-        <v>2004379.008</v>
+        <v>2005000.96</v>
       </c>
       <c r="F37" t="n">
-        <v>2007097.984</v>
+        <v>2003090.944</v>
       </c>
       <c r="G37" t="n">
-        <v>1996784</v>
+        <v>1979762.944</v>
       </c>
       <c r="H37" t="n">
-        <v>2005000.96</v>
+        <v>188360</v>
       </c>
       <c r="I37" t="n">
-        <v>2003090.944</v>
+        <v>160323.008</v>
       </c>
       <c r="J37" t="n">
-        <v>1979762.944</v>
+        <v>330855.008</v>
       </c>
       <c r="K37" t="n">
-        <v>188360</v>
+        <v>400224.992</v>
       </c>
       <c r="L37" t="n">
-        <v>160323.008</v>
+        <v>481720.992</v>
       </c>
       <c r="M37" t="n">
-        <v>330855.008</v>
+        <v>654992</v>
       </c>
       <c r="N37" t="n">
-        <v>400224.992</v>
+        <v>907256</v>
       </c>
       <c r="O37" t="n">
-        <v>481720.992</v>
+        <v>1063073.024</v>
       </c>
       <c r="P37" t="n">
-        <v>654992</v>
+        <v>1202816</v>
       </c>
       <c r="Q37" t="n">
-        <v>907256</v>
+        <v>1348205.952</v>
       </c>
       <c r="R37" t="n">
-        <v>1063073.024</v>
+        <v>1655521.024</v>
       </c>
       <c r="S37" t="n">
-        <v>1202816</v>
+        <v>1801603.968</v>
       </c>
       <c r="T37" t="n">
-        <v>1348205.952</v>
+        <v>1890477.056</v>
       </c>
       <c r="U37" t="n">
-        <v>1655521.024</v>
+        <v>2128685.952</v>
       </c>
       <c r="V37" t="n">
-        <v>1801603.968</v>
+        <v>2221199.872</v>
       </c>
       <c r="W37" t="n">
-        <v>1890477.056</v>
+        <v>2372382.976</v>
       </c>
       <c r="X37" t="n">
-        <v>2128685.952</v>
+        <v>2422452.992</v>
       </c>
       <c r="Y37" t="n">
-        <v>2221199.872</v>
+        <v>2501805.056</v>
       </c>
       <c r="Z37" t="n">
-        <v>2372382.976</v>
+        <v>2504336.896</v>
       </c>
       <c r="AA37" t="n">
-        <v>2422452.992</v>
+        <v>2708059.904</v>
       </c>
       <c r="AB37" t="n">
-        <v>2501805.056</v>
+        <v>2815308.032</v>
       </c>
       <c r="AC37" t="n">
-        <v>2504336.896</v>
+        <v>2854460.928</v>
       </c>
       <c r="AD37" t="n">
-        <v>2708059.904</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>2815308.032</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>2854460.928</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="n">
         <v>0</v>
@@ -7415,61 +7415,61 @@
         <v>0</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0</v>
+        <v>2351981.056</v>
       </c>
       <c r="AR37" t="n">
-        <v>0</v>
+        <v>2554513.92</v>
       </c>
       <c r="AS37" t="n">
-        <v>0</v>
+        <v>2932750.08</v>
       </c>
       <c r="AT37" t="n">
-        <v>2351981.056</v>
+        <v>2879247.872</v>
       </c>
       <c r="AU37" t="n">
-        <v>2554513.92</v>
+        <v>2859376.128</v>
       </c>
       <c r="AV37" t="n">
-        <v>2932750.08</v>
+        <v>2852411.904</v>
       </c>
       <c r="AW37" t="n">
-        <v>2879247.872</v>
+        <v>2551228.928</v>
       </c>
       <c r="AX37" t="n">
-        <v>2859376.128</v>
+        <v>2448075.008</v>
       </c>
       <c r="AY37" t="n">
-        <v>2852411.904</v>
+        <v>2962416.128</v>
       </c>
       <c r="AZ37" t="n">
-        <v>2551228.928</v>
+        <v>2831681.024</v>
       </c>
       <c r="BA37" t="n">
-        <v>2448075.008</v>
+        <v>2778916.096</v>
       </c>
       <c r="BB37" t="n">
-        <v>2962416.128</v>
+        <v>3163548.928</v>
       </c>
       <c r="BC37" t="n">
-        <v>2831681.024</v>
+        <v>3225548.032</v>
       </c>
       <c r="BD37" t="n">
-        <v>2778916.096</v>
+        <v>3167627.008</v>
       </c>
       <c r="BE37" t="n">
-        <v>3163548.928</v>
+        <v>3375544.064</v>
       </c>
       <c r="BF37" t="n">
-        <v>3225548.032</v>
+        <v>3435045.888</v>
       </c>
       <c r="BG37" t="n">
-        <v>3167627.008</v>
+        <v>3276102.912</v>
       </c>
       <c r="BH37" t="n">
-        <v>3375544.064</v>
+        <v>3254501.12</v>
       </c>
       <c r="BI37" t="n">
-        <v>3435045.888</v>
+        <v>3373785.088</v>
       </c>
     </row>
     <row r="38">
@@ -7638,25 +7638,25 @@
         <v>0</v>
       </c>
       <c r="BC38" t="n">
-        <v>0</v>
+        <v>598504</v>
       </c>
       <c r="BD38" t="n">
-        <v>0</v>
+        <v>598755.008</v>
       </c>
       <c r="BE38" t="n">
-        <v>0</v>
+        <v>1098846.976</v>
       </c>
       <c r="BF38" t="n">
-        <v>598504</v>
+        <v>1098856.96</v>
       </c>
       <c r="BG38" t="n">
-        <v>598755.008</v>
+        <v>1099144.96</v>
       </c>
       <c r="BH38" t="n">
-        <v>1098846.976</v>
+        <v>1099261.952</v>
       </c>
       <c r="BI38" t="n">
-        <v>1098856.96</v>
+        <v>1099384.96</v>
       </c>
     </row>
     <row r="39">
@@ -7666,70 +7666,70 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>31742</v>
+        <v>55114</v>
       </c>
       <c r="C39" t="n">
-        <v>33159</v>
+        <v>55472</v>
       </c>
       <c r="D39" t="n">
-        <v>34118</v>
+        <v>56139</v>
       </c>
       <c r="E39" t="n">
-        <v>55114</v>
+        <v>69296</v>
       </c>
       <c r="F39" t="n">
-        <v>55472</v>
+        <v>67681</v>
       </c>
       <c r="G39" t="n">
-        <v>56139</v>
+        <v>46922</v>
       </c>
       <c r="H39" t="n">
-        <v>69296</v>
+        <v>48946</v>
       </c>
       <c r="I39" t="n">
-        <v>67681</v>
+        <v>50696</v>
       </c>
       <c r="J39" t="n">
-        <v>46922</v>
+        <v>35768</v>
       </c>
       <c r="K39" t="n">
-        <v>48946</v>
+        <v>34197</v>
       </c>
       <c r="L39" t="n">
-        <v>50696</v>
+        <v>35381</v>
       </c>
       <c r="M39" t="n">
-        <v>35768</v>
+        <v>36346</v>
       </c>
       <c r="N39" t="n">
-        <v>34197</v>
+        <v>6789</v>
       </c>
       <c r="O39" t="n">
-        <v>35381</v>
+        <v>6857</v>
       </c>
       <c r="P39" t="n">
-        <v>36346</v>
+        <v>5023</v>
       </c>
       <c r="Q39" t="n">
-        <v>6789</v>
+        <v>5023</v>
       </c>
       <c r="R39" t="n">
-        <v>6857</v>
+        <v>5023</v>
       </c>
       <c r="S39" t="n">
-        <v>5023</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>5023</v>
       </c>
       <c r="U39" t="n">
-        <v>5023</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>5023</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -7853,97 +7853,97 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>37324</v>
+        <v>39762</v>
       </c>
       <c r="C40" t="n">
-        <v>36287</v>
+        <v>38646</v>
       </c>
       <c r="D40" t="n">
-        <v>35251</v>
+        <v>37530</v>
       </c>
       <c r="E40" t="n">
-        <v>39762</v>
+        <v>36414</v>
       </c>
       <c r="F40" t="n">
-        <v>38646</v>
+        <v>35298</v>
       </c>
       <c r="G40" t="n">
-        <v>37530</v>
+        <v>34182</v>
       </c>
       <c r="H40" t="n">
-        <v>36414</v>
+        <v>33066</v>
       </c>
       <c r="I40" t="n">
-        <v>35298</v>
+        <v>4994</v>
       </c>
       <c r="J40" t="n">
-        <v>34182</v>
+        <v>209943.008</v>
       </c>
       <c r="K40" t="n">
-        <v>33066</v>
+        <v>276319.008</v>
       </c>
       <c r="L40" t="n">
-        <v>4994</v>
+        <v>352140.992</v>
       </c>
       <c r="M40" t="n">
-        <v>209943.008</v>
+        <v>522060.992</v>
       </c>
       <c r="N40" t="n">
-        <v>276319.008</v>
+        <v>800841.9840000001</v>
       </c>
       <c r="O40" t="n">
-        <v>352140.992</v>
+        <v>952988.032</v>
       </c>
       <c r="P40" t="n">
-        <v>522060.992</v>
+        <v>1095860.992</v>
       </c>
       <c r="Q40" t="n">
-        <v>800841.9840000001</v>
+        <v>1268882.944</v>
       </c>
       <c r="R40" t="n">
-        <v>952988.032</v>
+        <v>1573046.016</v>
       </c>
       <c r="S40" t="n">
-        <v>1095860.992</v>
+        <v>1726114.944</v>
       </c>
       <c r="T40" t="n">
-        <v>1268882.944</v>
+        <v>1811452.032</v>
       </c>
       <c r="U40" t="n">
-        <v>1573046.016</v>
+        <v>2050724.992</v>
       </c>
       <c r="V40" t="n">
-        <v>1726114.944</v>
+        <v>2144873.984</v>
       </c>
       <c r="W40" t="n">
-        <v>1811452.032</v>
+        <v>2301545.984</v>
       </c>
       <c r="X40" t="n">
-        <v>2050724.992</v>
+        <v>2349984</v>
       </c>
       <c r="Y40" t="n">
-        <v>2144873.984</v>
+        <v>2437421.056</v>
       </c>
       <c r="Z40" t="n">
-        <v>2301545.984</v>
+        <v>2440551.936</v>
       </c>
       <c r="AA40" t="n">
-        <v>2349984</v>
+        <v>2643206.912</v>
       </c>
       <c r="AB40" t="n">
-        <v>2437421.056</v>
+        <v>2746867.968</v>
       </c>
       <c r="AC40" t="n">
-        <v>2440551.936</v>
+        <v>2801533.952</v>
       </c>
       <c r="AD40" t="n">
-        <v>2643206.912</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
-        <v>2746867.968</v>
+        <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>2801533.952</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="n">
         <v>0</v>
@@ -7976,61 +7976,61 @@
         <v>0</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0</v>
+        <v>2326539.008</v>
       </c>
       <c r="AR40" t="n">
-        <v>0</v>
+        <v>2519269.888</v>
       </c>
       <c r="AS40" t="n">
-        <v>0</v>
+        <v>2866361.088</v>
       </c>
       <c r="AT40" t="n">
-        <v>2326539.008</v>
+        <v>2784400.896</v>
       </c>
       <c r="AU40" t="n">
-        <v>2519269.888</v>
+        <v>2711516.928</v>
       </c>
       <c r="AV40" t="n">
-        <v>2866361.088</v>
+        <v>2678406.912</v>
       </c>
       <c r="AW40" t="n">
-        <v>2784400.896</v>
+        <v>2386201.088</v>
       </c>
       <c r="AX40" t="n">
-        <v>2711516.928</v>
+        <v>2230857.984</v>
       </c>
       <c r="AY40" t="n">
-        <v>2678406.912</v>
+        <v>2107283.968</v>
       </c>
       <c r="AZ40" t="n">
-        <v>2386201.088</v>
+        <v>1981917.056</v>
       </c>
       <c r="BA40" t="n">
-        <v>2230857.984</v>
+        <v>1937463.04</v>
       </c>
       <c r="BB40" t="n">
-        <v>2107283.968</v>
+        <v>2335496.96</v>
       </c>
       <c r="BC40" t="n">
-        <v>1981917.056</v>
+        <v>1781383.936</v>
       </c>
       <c r="BD40" t="n">
-        <v>1937463.04</v>
+        <v>1714375.936</v>
       </c>
       <c r="BE40" t="n">
-        <v>2335496.96</v>
+        <v>1462546.048</v>
       </c>
       <c r="BF40" t="n">
-        <v>1781383.936</v>
+        <v>1534253.952</v>
       </c>
       <c r="BG40" t="n">
-        <v>1714375.936</v>
+        <v>1356814.976</v>
       </c>
       <c r="BH40" t="n">
-        <v>1462546.048</v>
+        <v>1332131.968</v>
       </c>
       <c r="BI40" t="n">
-        <v>1534253.952</v>
+        <v>1522658.944</v>
       </c>
     </row>
     <row r="41">
@@ -8245,13 +8245,13 @@
         <v>1789841.024</v>
       </c>
       <c r="H42" t="n">
-        <v>1789841.024</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1789841.024</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1789841.024</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -8414,97 +8414,97 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>123019</v>
+        <v>119662</v>
       </c>
       <c r="C43" t="n">
-        <v>120394</v>
+        <v>123139</v>
       </c>
       <c r="D43" t="n">
-        <v>123726</v>
+        <v>113274</v>
       </c>
       <c r="E43" t="n">
-        <v>119662</v>
+        <v>109450</v>
       </c>
       <c r="F43" t="n">
-        <v>123139</v>
+        <v>110271</v>
       </c>
       <c r="G43" t="n">
-        <v>113274</v>
+        <v>108818</v>
       </c>
       <c r="H43" t="n">
-        <v>109450</v>
+        <v>106348</v>
       </c>
       <c r="I43" t="n">
-        <v>110271</v>
+        <v>104633</v>
       </c>
       <c r="J43" t="n">
-        <v>108818</v>
+        <v>85144</v>
       </c>
       <c r="K43" t="n">
-        <v>106348</v>
+        <v>89709</v>
       </c>
       <c r="L43" t="n">
-        <v>104633</v>
+        <v>94199</v>
       </c>
       <c r="M43" t="n">
-        <v>85144</v>
+        <v>96585</v>
       </c>
       <c r="N43" t="n">
-        <v>89709</v>
+        <v>99625</v>
       </c>
       <c r="O43" t="n">
-        <v>94199</v>
+        <v>103228</v>
       </c>
       <c r="P43" t="n">
-        <v>96585</v>
+        <v>101932</v>
       </c>
       <c r="Q43" t="n">
-        <v>99625</v>
+        <v>74300</v>
       </c>
       <c r="R43" t="n">
-        <v>103228</v>
+        <v>77452</v>
       </c>
       <c r="S43" t="n">
-        <v>101932</v>
+        <v>75489</v>
       </c>
       <c r="T43" t="n">
-        <v>74300</v>
+        <v>74002</v>
       </c>
       <c r="U43" t="n">
-        <v>77452</v>
+        <v>77961</v>
       </c>
       <c r="V43" t="n">
-        <v>75489</v>
+        <v>76326</v>
       </c>
       <c r="W43" t="n">
-        <v>74002</v>
+        <v>70837</v>
       </c>
       <c r="X43" t="n">
-        <v>77961</v>
+        <v>72469</v>
       </c>
       <c r="Y43" t="n">
-        <v>76326</v>
+        <v>64384</v>
       </c>
       <c r="Z43" t="n">
-        <v>70837</v>
+        <v>63785</v>
       </c>
       <c r="AA43" t="n">
-        <v>72469</v>
+        <v>64853</v>
       </c>
       <c r="AB43" t="n">
-        <v>64384</v>
+        <v>68440</v>
       </c>
       <c r="AC43" t="n">
-        <v>63785</v>
+        <v>52927</v>
       </c>
       <c r="AD43" t="n">
-        <v>64853</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>68440</v>
+        <v>0</v>
       </c>
       <c r="AF43" t="n">
-        <v>52927</v>
+        <v>0</v>
       </c>
       <c r="AG43" t="n">
         <v>0</v>
@@ -8537,61 +8537,61 @@
         <v>0</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0</v>
+        <v>25442</v>
       </c>
       <c r="AR43" t="n">
-        <v>0</v>
+        <v>35244</v>
       </c>
       <c r="AS43" t="n">
-        <v>0</v>
+        <v>66389</v>
       </c>
       <c r="AT43" t="n">
-        <v>25442</v>
+        <v>94847</v>
       </c>
       <c r="AU43" t="n">
-        <v>35244</v>
+        <v>147859.008</v>
       </c>
       <c r="AV43" t="n">
-        <v>66389</v>
+        <v>174004.992</v>
       </c>
       <c r="AW43" t="n">
-        <v>94847</v>
+        <v>165028</v>
       </c>
       <c r="AX43" t="n">
-        <v>147859.008</v>
+        <v>217216.992</v>
       </c>
       <c r="AY43" t="n">
-        <v>174004.992</v>
+        <v>855132.032</v>
       </c>
       <c r="AZ43" t="n">
-        <v>165028</v>
+        <v>849763.968</v>
       </c>
       <c r="BA43" t="n">
-        <v>217216.992</v>
+        <v>841452.992</v>
       </c>
       <c r="BB43" t="n">
-        <v>855132.032</v>
+        <v>828051.968</v>
       </c>
       <c r="BC43" t="n">
-        <v>849763.968</v>
+        <v>845660.032</v>
       </c>
       <c r="BD43" t="n">
-        <v>841452.992</v>
+        <v>854496</v>
       </c>
       <c r="BE43" t="n">
-        <v>828051.968</v>
+        <v>814150.976</v>
       </c>
       <c r="BF43" t="n">
-        <v>845660.032</v>
+        <v>801934.976</v>
       </c>
       <c r="BG43" t="n">
-        <v>854496</v>
+        <v>820142.976</v>
       </c>
       <c r="BH43" t="n">
-        <v>814150.976</v>
+        <v>823107.008</v>
       </c>
       <c r="BI43" t="n">
-        <v>801934.976</v>
+        <v>751740.992</v>
       </c>
     </row>
     <row r="44">
@@ -8788,13 +8788,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5786</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>5707</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>5628</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -9162,97 +9162,97 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-123441</v>
+        <v>-71092</v>
       </c>
       <c r="C47" t="n">
-        <v>-94219</v>
+        <v>-97380</v>
       </c>
       <c r="D47" t="n">
-        <v>-85429</v>
+        <v>-92633</v>
       </c>
       <c r="E47" t="n">
-        <v>-71092</v>
+        <v>-62926</v>
       </c>
       <c r="F47" t="n">
-        <v>-97380</v>
+        <v>-66875</v>
       </c>
       <c r="G47" t="n">
-        <v>-92633</v>
+        <v>-89755</v>
       </c>
       <c r="H47" t="n">
-        <v>-62926</v>
+        <v>1704861.056</v>
       </c>
       <c r="I47" t="n">
-        <v>-66875</v>
+        <v>1711490.944</v>
       </c>
       <c r="J47" t="n">
-        <v>-89755</v>
+        <v>1711300.992</v>
       </c>
       <c r="K47" t="n">
-        <v>1704861.056</v>
+        <v>1654160</v>
       </c>
       <c r="L47" t="n">
-        <v>1711490.944</v>
+        <v>1615047.936</v>
       </c>
       <c r="M47" t="n">
-        <v>1711300.992</v>
+        <v>1565268.992</v>
       </c>
       <c r="N47" t="n">
-        <v>1654160</v>
+        <v>1536104.96</v>
       </c>
       <c r="O47" t="n">
-        <v>1615047.936</v>
+        <v>1458961.024</v>
       </c>
       <c r="P47" t="n">
-        <v>1565268.992</v>
+        <v>1412014.976</v>
       </c>
       <c r="Q47" t="n">
-        <v>1536104.96</v>
+        <v>1363405.952</v>
       </c>
       <c r="R47" t="n">
-        <v>1458961.024</v>
+        <v>1372955.008</v>
       </c>
       <c r="S47" t="n">
-        <v>1412014.976</v>
+        <v>1266036.992</v>
       </c>
       <c r="T47" t="n">
-        <v>1363405.952</v>
+        <v>1227565.056</v>
       </c>
       <c r="U47" t="n">
-        <v>1372955.008</v>
+        <v>1228711.04</v>
       </c>
       <c r="V47" t="n">
-        <v>1266036.992</v>
+        <v>1526514.048</v>
       </c>
       <c r="W47" t="n">
-        <v>1227565.056</v>
+        <v>1497836.032</v>
       </c>
       <c r="X47" t="n">
-        <v>1228711.04</v>
+        <v>1513723.008</v>
       </c>
       <c r="Y47" t="n">
-        <v>1526514.048</v>
+        <v>1529827.968</v>
       </c>
       <c r="Z47" t="n">
-        <v>1497836.032</v>
+        <v>1567147.008</v>
       </c>
       <c r="AA47" t="n">
-        <v>1513723.008</v>
+        <v>1563815.04</v>
       </c>
       <c r="AB47" t="n">
-        <v>1529827.968</v>
+        <v>1582944</v>
       </c>
       <c r="AC47" t="n">
-        <v>1567147.008</v>
+        <v>1608759.04</v>
       </c>
       <c r="AD47" t="n">
-        <v>1563815.04</v>
+        <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>1582944</v>
+        <v>0</v>
       </c>
       <c r="AF47" t="n">
-        <v>1608759.04</v>
+        <v>0</v>
       </c>
       <c r="AG47" t="n">
         <v>0</v>
@@ -9285,61 +9285,61 @@
         <v>0</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0</v>
+        <v>5002276.864</v>
       </c>
       <c r="AR47" t="n">
-        <v>0</v>
+        <v>5023358.976</v>
       </c>
       <c r="AS47" t="n">
-        <v>0</v>
+        <v>4832760.832</v>
       </c>
       <c r="AT47" t="n">
-        <v>5002276.864</v>
+        <v>4736266.752</v>
       </c>
       <c r="AU47" t="n">
-        <v>5023358.976</v>
+        <v>4736054.784</v>
       </c>
       <c r="AV47" t="n">
-        <v>4832760.832</v>
+        <v>4759531.008</v>
       </c>
       <c r="AW47" t="n">
-        <v>4736266.752</v>
+        <v>5139111.936</v>
       </c>
       <c r="AX47" t="n">
-        <v>4736054.784</v>
+        <v>4959941.12</v>
       </c>
       <c r="AY47" t="n">
-        <v>4759531.008</v>
+        <v>4483697.152</v>
       </c>
       <c r="AZ47" t="n">
-        <v>5139111.936</v>
+        <v>4754165.76</v>
       </c>
       <c r="BA47" t="n">
-        <v>4959941.12</v>
+        <v>4524424.192</v>
       </c>
       <c r="BB47" t="n">
-        <v>4483697.152</v>
+        <v>4267535.104</v>
       </c>
       <c r="BC47" t="n">
-        <v>4754165.76</v>
+        <v>4169384.96</v>
       </c>
       <c r="BD47" t="n">
-        <v>4524424.192</v>
+        <v>4154750.976</v>
       </c>
       <c r="BE47" t="n">
-        <v>4267535.104</v>
+        <v>1982768</v>
       </c>
       <c r="BF47" t="n">
-        <v>4169384.96</v>
+        <v>1913838.976</v>
       </c>
       <c r="BG47" t="n">
-        <v>4154750.976</v>
+        <v>1918717.952</v>
       </c>
       <c r="BH47" t="n">
-        <v>1982768</v>
+        <v>1076114.048</v>
       </c>
       <c r="BI47" t="n">
-        <v>1913838.976</v>
+        <v>1192744.96</v>
       </c>
     </row>
     <row r="48">
@@ -9367,16 +9367,16 @@
         <v>1130199.04</v>
       </c>
       <c r="H48" t="n">
-        <v>1130199.04</v>
+        <v>2920039.936</v>
       </c>
       <c r="I48" t="n">
-        <v>1130199.04</v>
+        <v>1722966.016</v>
       </c>
       <c r="J48" t="n">
-        <v>1130199.04</v>
+        <v>1722966.016</v>
       </c>
       <c r="K48" t="n">
-        <v>2920039.936</v>
+        <v>1722966.016</v>
       </c>
       <c r="L48" t="n">
         <v>1722966.016</v>
@@ -9433,13 +9433,13 @@
         <v>1722966.016</v>
       </c>
       <c r="AD48" t="n">
-        <v>1722966.016</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>1722966.016</v>
+        <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>1722966.016</v>
+        <v>0</v>
       </c>
       <c r="AG48" t="n">
         <v>0</v>
@@ -9472,13 +9472,13 @@
         <v>0</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0</v>
+        <v>4663150.08</v>
       </c>
       <c r="AR48" t="n">
-        <v>0</v>
+        <v>4663150.08</v>
       </c>
       <c r="AS48" t="n">
-        <v>0</v>
+        <v>4663150.08</v>
       </c>
       <c r="AT48" t="n">
         <v>4663150.08</v>
@@ -9490,22 +9490,22 @@
         <v>4663150.08</v>
       </c>
       <c r="AW48" t="n">
-        <v>4663150.08</v>
+        <v>4663258.112</v>
       </c>
       <c r="AX48" t="n">
-        <v>4663150.08</v>
+        <v>4663258.112</v>
       </c>
       <c r="AY48" t="n">
-        <v>4663150.08</v>
+        <v>4663258.112</v>
       </c>
       <c r="AZ48" t="n">
-        <v>4663258.112</v>
+        <v>4663323.136</v>
       </c>
       <c r="BA48" t="n">
-        <v>4663258.112</v>
+        <v>4663323.136</v>
       </c>
       <c r="BB48" t="n">
-        <v>4663258.112</v>
+        <v>4663323.136</v>
       </c>
       <c r="BC48" t="n">
         <v>4663323.136</v>
@@ -9659,43 +9659,43 @@
         <v>0</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0</v>
+        <v>525687.008</v>
       </c>
       <c r="AR49" t="n">
-        <v>0</v>
+        <v>525687.008</v>
       </c>
       <c r="AS49" t="n">
-        <v>0</v>
+        <v>169611.008</v>
       </c>
       <c r="AT49" t="n">
-        <v>525687.008</v>
+        <v>169611.008</v>
       </c>
       <c r="AU49" t="n">
-        <v>525687.008</v>
+        <v>169611.008</v>
       </c>
       <c r="AV49" t="n">
         <v>169611.008</v>
       </c>
       <c r="AW49" t="n">
-        <v>169611.008</v>
+        <v>475854.016</v>
       </c>
       <c r="AX49" t="n">
-        <v>169611.008</v>
+        <v>475854.016</v>
       </c>
       <c r="AY49" t="n">
-        <v>169611.008</v>
+        <v>17644</v>
       </c>
       <c r="AZ49" t="n">
-        <v>475854.016</v>
+        <v>277579.008</v>
       </c>
       <c r="BA49" t="n">
-        <v>475854.016</v>
+        <v>0</v>
       </c>
       <c r="BB49" t="n">
-        <v>17644</v>
+        <v>0</v>
       </c>
       <c r="BC49" t="n">
-        <v>277579.008</v>
+        <v>0</v>
       </c>
       <c r="BD49" t="n">
         <v>0</v>
@@ -10097,97 +10097,97 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-1253639.936</v>
+        <v>-1201291.008</v>
       </c>
       <c r="C52" t="n">
-        <v>-1224418.048</v>
+        <v>-1227579.008</v>
       </c>
       <c r="D52" t="n">
-        <v>-1215628.032</v>
+        <v>-1222832</v>
       </c>
       <c r="E52" t="n">
-        <v>-1201291.008</v>
+        <v>-1193124.992</v>
       </c>
       <c r="F52" t="n">
-        <v>-1227579.008</v>
+        <v>-1197074.048</v>
       </c>
       <c r="G52" t="n">
-        <v>-1222832</v>
+        <v>-1219954.048</v>
       </c>
       <c r="H52" t="n">
-        <v>-1193124.992</v>
+        <v>-1215179.008</v>
       </c>
       <c r="I52" t="n">
-        <v>-1197074.048</v>
+        <v>-11475</v>
       </c>
       <c r="J52" t="n">
-        <v>-1219954.048</v>
+        <v>-11665</v>
       </c>
       <c r="K52" t="n">
-        <v>-1215179.008</v>
+        <v>-68806</v>
       </c>
       <c r="L52" t="n">
-        <v>-11475</v>
+        <v>-107918</v>
       </c>
       <c r="M52" t="n">
-        <v>-11665</v>
+        <v>-157696.992</v>
       </c>
       <c r="N52" t="n">
-        <v>-68806</v>
+        <v>-186860.992</v>
       </c>
       <c r="O52" t="n">
-        <v>-107918</v>
+        <v>-264004.992</v>
       </c>
       <c r="P52" t="n">
-        <v>-157696.992</v>
+        <v>-310951.008</v>
       </c>
       <c r="Q52" t="n">
-        <v>-186860.992</v>
+        <v>-359560</v>
       </c>
       <c r="R52" t="n">
-        <v>-264004.992</v>
+        <v>-350011.008</v>
       </c>
       <c r="S52" t="n">
-        <v>-310951.008</v>
+        <v>-456928.992</v>
       </c>
       <c r="T52" t="n">
-        <v>-359560</v>
+        <v>-495400.992</v>
       </c>
       <c r="U52" t="n">
-        <v>-350011.008</v>
+        <v>-490776</v>
       </c>
       <c r="V52" t="n">
-        <v>-456928.992</v>
+        <v>-196220.992</v>
       </c>
       <c r="W52" t="n">
-        <v>-495400.992</v>
+        <v>-224899.008</v>
       </c>
       <c r="X52" t="n">
-        <v>-490776</v>
+        <v>-209012</v>
       </c>
       <c r="Y52" t="n">
-        <v>-196220.992</v>
+        <v>-192907.008</v>
       </c>
       <c r="Z52" t="n">
-        <v>-224899.008</v>
+        <v>-155588</v>
       </c>
       <c r="AA52" t="n">
-        <v>-209012</v>
+        <v>-158920</v>
       </c>
       <c r="AB52" t="n">
-        <v>-192907.008</v>
+        <v>-139791.008</v>
       </c>
       <c r="AC52" t="n">
-        <v>-155588</v>
+        <v>-113976</v>
       </c>
       <c r="AD52" t="n">
-        <v>-158920</v>
+        <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>-139791.008</v>
+        <v>0</v>
       </c>
       <c r="AF52" t="n">
-        <v>-113976</v>
+        <v>0</v>
       </c>
       <c r="AG52" t="n">
         <v>0</v>
@@ -10220,61 +10220,61 @@
         <v>0</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0</v>
+        <v>-186560</v>
       </c>
       <c r="AR52" t="n">
-        <v>0</v>
+        <v>-165478</v>
       </c>
       <c r="AS52" t="n">
         <v>0</v>
       </c>
       <c r="AT52" t="n">
-        <v>-186560</v>
+        <v>-96494</v>
       </c>
       <c r="AU52" t="n">
-        <v>-165478</v>
+        <v>-96706</v>
       </c>
       <c r="AV52" t="n">
-        <v>0</v>
+        <v>-73230</v>
       </c>
       <c r="AW52" t="n">
-        <v>-96494</v>
+        <v>0</v>
       </c>
       <c r="AX52" t="n">
-        <v>-96706</v>
+        <v>-179171.008</v>
       </c>
       <c r="AY52" t="n">
-        <v>-73230</v>
+        <v>-197204.992</v>
       </c>
       <c r="AZ52" t="n">
-        <v>0</v>
+        <v>-186736</v>
       </c>
       <c r="BA52" t="n">
-        <v>-179171.008</v>
+        <v>-138899.008</v>
       </c>
       <c r="BB52" t="n">
-        <v>-197204.992</v>
+        <v>-395788</v>
       </c>
       <c r="BC52" t="n">
-        <v>-186736</v>
+        <v>-493937.984</v>
       </c>
       <c r="BD52" t="n">
-        <v>-138899.008</v>
+        <v>-508572</v>
       </c>
       <c r="BE52" t="n">
-        <v>-395788</v>
+        <v>-2680555.008</v>
       </c>
       <c r="BF52" t="n">
-        <v>-493937.984</v>
+        <v>-2749484.032</v>
       </c>
       <c r="BG52" t="n">
-        <v>-508572</v>
+        <v>-2744604.928</v>
       </c>
       <c r="BH52" t="n">
-        <v>-2680555.008</v>
+        <v>-3587208.96</v>
       </c>
       <c r="BI52" t="n">
-        <v>-2749484.032</v>
+        <v>-3470577.92</v>
       </c>
     </row>
     <row r="53">
@@ -10341,16 +10341,16 @@
         <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>-3479</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>-231</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>-231</v>
       </c>
       <c r="X53" t="n">
-        <v>-3479</v>
+        <v>-231</v>
       </c>
       <c r="Y53" t="n">
         <v>-231</v>
@@ -10368,13 +10368,13 @@
         <v>-231</v>
       </c>
       <c r="AD53" t="n">
-        <v>-231</v>
+        <v>0</v>
       </c>
       <c r="AE53" t="n">
-        <v>-231</v>
+        <v>0</v>
       </c>
       <c r="AF53" t="n">
-        <v>-231</v>
+        <v>0</v>
       </c>
       <c r="AG53" t="n">
         <v>0</v>
@@ -11032,38 +11032,32 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>247036</v>
+        <v>185910</v>
       </c>
       <c r="C57" t="n">
-        <v>243352</v>
+        <v>220700.992</v>
       </c>
       <c r="D57" t="n">
-        <v>210785.968</v>
+        <v>224234</v>
       </c>
       <c r="E57" t="n">
-        <v>185910</v>
+        <v>187316.032</v>
       </c>
       <c r="F57" t="n">
-        <v>220700.992</v>
+        <v>247910</v>
       </c>
       <c r="G57" t="n">
-        <v>224234</v>
+        <v>323991.008</v>
       </c>
       <c r="H57" t="n">
-        <v>187316.032</v>
+        <v>313592</v>
       </c>
       <c r="I57" t="n">
-        <v>247910</v>
-      </c>
-      <c r="J57" t="n">
-        <v>323991.008</v>
-      </c>
-      <c r="K57" t="n">
         <v>313592</v>
       </c>
-      <c r="L57" t="n">
-        <v>313592</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -11121,38 +11115,32 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-42341</v>
+        <v>-32010</v>
       </c>
       <c r="C58" t="n">
-        <v>-42712</v>
+        <v>-34975</v>
       </c>
       <c r="D58" t="n">
-        <v>-36230</v>
+        <v>-37933</v>
       </c>
       <c r="E58" t="n">
-        <v>-32010</v>
+        <v>-34634.992</v>
       </c>
       <c r="F58" t="n">
-        <v>-34975</v>
+        <v>-39773</v>
       </c>
       <c r="G58" t="n">
-        <v>-37933</v>
+        <v>-49004</v>
       </c>
       <c r="H58" t="n">
-        <v>-34634.992</v>
+        <v>-47843</v>
       </c>
       <c r="I58" t="n">
-        <v>-39773</v>
-      </c>
-      <c r="J58" t="n">
-        <v>-49004</v>
-      </c>
-      <c r="K58" t="n">
         <v>-47843</v>
       </c>
-      <c r="L58" t="n">
-        <v>-47843</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
@@ -11210,100 +11198,100 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>204695.008</v>
+        <v>153900</v>
       </c>
       <c r="C59" t="n">
-        <v>200640</v>
+        <v>185726</v>
       </c>
       <c r="D59" t="n">
-        <v>174556</v>
+        <v>186300.992</v>
       </c>
       <c r="E59" t="n">
-        <v>153900</v>
+        <v>152681.008</v>
       </c>
       <c r="F59" t="n">
-        <v>185726</v>
+        <v>208136.992</v>
       </c>
       <c r="G59" t="n">
-        <v>186300.992</v>
+        <v>274987.008</v>
       </c>
       <c r="H59" t="n">
-        <v>152681.008</v>
+        <v>265748.992</v>
       </c>
       <c r="I59" t="n">
-        <v>208136.992</v>
+        <v>265748.992</v>
       </c>
       <c r="J59" t="n">
-        <v>274987.008</v>
+        <v>221916</v>
       </c>
       <c r="K59" t="n">
-        <v>265748.992</v>
+        <v>204098</v>
       </c>
       <c r="L59" t="n">
-        <v>265748.992</v>
+        <v>264079.008</v>
       </c>
       <c r="M59" t="n">
-        <v>221916</v>
+        <v>268849.984</v>
       </c>
       <c r="N59" t="n">
-        <v>204098</v>
+        <v>273241.984</v>
       </c>
       <c r="O59" t="n">
-        <v>264079.008</v>
+        <v>219563.008</v>
       </c>
       <c r="P59" t="n">
-        <v>268849.984</v>
+        <v>274766.016</v>
       </c>
       <c r="Q59" t="n">
-        <v>273241.984</v>
+        <v>279232</v>
       </c>
       <c r="R59" t="n">
-        <v>219563.008</v>
+        <v>339817.024</v>
       </c>
       <c r="S59" t="n">
-        <v>274766.016</v>
+        <v>275939.008</v>
       </c>
       <c r="T59" t="n">
-        <v>279232</v>
+        <v>332643.008</v>
       </c>
       <c r="U59" t="n">
-        <v>339817.024</v>
+        <v>363000</v>
       </c>
       <c r="V59" t="n">
-        <v>275939.008</v>
+        <v>304681.024</v>
       </c>
       <c r="W59" t="n">
-        <v>332643.008</v>
+        <v>327243.008</v>
       </c>
       <c r="X59" t="n">
-        <v>363000</v>
+        <v>401105.984</v>
       </c>
       <c r="Y59" t="n">
-        <v>304681.024</v>
+        <v>407328.992</v>
       </c>
       <c r="Z59" t="n">
-        <v>327243.008</v>
+        <v>364745.952</v>
       </c>
       <c r="AA59" t="n">
-        <v>401105.984</v>
+        <v>356475.008</v>
       </c>
       <c r="AB59" t="n">
-        <v>407328.992</v>
+        <v>433020.992</v>
       </c>
       <c r="AC59" t="n">
-        <v>364745.952</v>
+        <v>460572</v>
       </c>
       <c r="AD59" t="n">
-        <v>356475.008</v>
+        <v>-1250067.968</v>
       </c>
       <c r="AE59" t="n">
-        <v>433020.992</v>
+        <v>0</v>
       </c>
       <c r="AF59" t="n">
-        <v>460572</v>
+        <v>0</v>
       </c>
       <c r="AG59" t="n">
-        <v>-1250067.968</v>
+        <v>0</v>
       </c>
       <c r="AH59" t="n">
         <v>0</v>
@@ -11333,61 +11321,61 @@
         <v>0</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0</v>
+        <v>581756.992</v>
       </c>
       <c r="AR59" t="n">
-        <v>0</v>
+        <v>716414.976</v>
       </c>
       <c r="AS59" t="n">
-        <v>0</v>
+        <v>597275.008</v>
       </c>
       <c r="AT59" t="n">
-        <v>581756.992</v>
+        <v>535576</v>
       </c>
       <c r="AU59" t="n">
-        <v>716414.976</v>
+        <v>764092.032</v>
       </c>
       <c r="AV59" t="n">
-        <v>597275.008</v>
+        <v>786966.976</v>
       </c>
       <c r="AW59" t="n">
-        <v>535576</v>
+        <v>602747.904</v>
       </c>
       <c r="AX59" t="n">
-        <v>764092.032</v>
+        <v>602548.992</v>
       </c>
       <c r="AY59" t="n">
-        <v>786966.976</v>
+        <v>804401.9840000001</v>
       </c>
       <c r="AZ59" t="n">
-        <v>602747.904</v>
+        <v>612713.152</v>
       </c>
       <c r="BA59" t="n">
-        <v>602548.992</v>
+        <v>534563.008</v>
       </c>
       <c r="BB59" t="n">
-        <v>804401.9840000001</v>
+        <v>846201.024</v>
       </c>
       <c r="BC59" t="n">
-        <v>612713.152</v>
+        <v>945041.024</v>
       </c>
       <c r="BD59" t="n">
-        <v>534563.008</v>
+        <v>722806.0159999999</v>
       </c>
       <c r="BE59" t="n">
-        <v>846201.024</v>
+        <v>729649.024</v>
       </c>
       <c r="BF59" t="n">
-        <v>945041.024</v>
+        <v>958316.032</v>
       </c>
       <c r="BG59" t="n">
-        <v>722806.0159999999</v>
+        <v>907399.1679999999</v>
       </c>
       <c r="BH59" t="n">
-        <v>729649.024</v>
+        <v>886316.032</v>
       </c>
       <c r="BI59" t="n">
-        <v>958316.032</v>
+        <v>1118096</v>
       </c>
     </row>
     <row r="60">
@@ -11397,100 +11385,100 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-170879.008</v>
+        <v>-166306</v>
       </c>
       <c r="C60" t="n">
-        <v>-184742</v>
+        <v>-164107.008</v>
       </c>
       <c r="D60" t="n">
-        <v>-172618.032</v>
+        <v>-169074</v>
       </c>
       <c r="E60" t="n">
-        <v>-166306</v>
+        <v>-162791.008</v>
       </c>
       <c r="F60" t="n">
-        <v>-164107.008</v>
+        <v>-217740</v>
       </c>
       <c r="G60" t="n">
-        <v>-169074</v>
+        <v>-258738</v>
       </c>
       <c r="H60" t="n">
-        <v>-162791.008</v>
+        <v>-253600</v>
       </c>
       <c r="I60" t="n">
-        <v>-217740</v>
+        <v>-253600</v>
       </c>
       <c r="J60" t="n">
-        <v>-258738</v>
+        <v>-240851.984</v>
       </c>
       <c r="K60" t="n">
-        <v>-253600</v>
+        <v>-241570</v>
       </c>
       <c r="L60" t="n">
-        <v>-253600</v>
+        <v>-274908.992</v>
       </c>
       <c r="M60" t="n">
-        <v>-240851.984</v>
+        <v>-283027.008</v>
       </c>
       <c r="N60" t="n">
-        <v>-241570</v>
+        <v>-268378.032</v>
       </c>
       <c r="O60" t="n">
-        <v>-274908.992</v>
+        <v>-258828.992</v>
       </c>
       <c r="P60" t="n">
-        <v>-283027.008</v>
+        <v>-299582.016</v>
       </c>
       <c r="Q60" t="n">
-        <v>-268378.032</v>
+        <v>-316312</v>
       </c>
       <c r="R60" t="n">
-        <v>-258828.992</v>
+        <v>-301685.952</v>
       </c>
       <c r="S60" t="n">
-        <v>-299582.016</v>
+        <v>-337499.008</v>
       </c>
       <c r="T60" t="n">
-        <v>-316312</v>
+        <v>-370264.992</v>
       </c>
       <c r="U60" t="n">
-        <v>-301685.952</v>
+        <v>-338064</v>
       </c>
       <c r="V60" t="n">
-        <v>-337499.008</v>
+        <v>-387203.936</v>
       </c>
       <c r="W60" t="n">
-        <v>-370264.992</v>
+        <v>-347451.008</v>
       </c>
       <c r="X60" t="n">
-        <v>-338064</v>
+        <v>-380776</v>
       </c>
       <c r="Y60" t="n">
-        <v>-387203.936</v>
+        <v>-391662.016</v>
       </c>
       <c r="Z60" t="n">
-        <v>-347451.008</v>
+        <v>-403798.016</v>
       </c>
       <c r="AA60" t="n">
-        <v>-380776</v>
+        <v>-376544.992</v>
       </c>
       <c r="AB60" t="n">
-        <v>-391662.016</v>
+        <v>-418156</v>
       </c>
       <c r="AC60" t="n">
-        <v>-403798.016</v>
+        <v>-425206.016</v>
       </c>
       <c r="AD60" t="n">
-        <v>-376544.992</v>
+        <v>1219907.072</v>
       </c>
       <c r="AE60" t="n">
-        <v>-418156</v>
+        <v>0</v>
       </c>
       <c r="AF60" t="n">
-        <v>-425206.016</v>
+        <v>0</v>
       </c>
       <c r="AG60" t="n">
-        <v>1219907.072</v>
+        <v>0</v>
       </c>
       <c r="AH60" t="n">
         <v>0</v>
@@ -11520,61 +11508,61 @@
         <v>0</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0</v>
+        <v>-587196.032</v>
       </c>
       <c r="AR60" t="n">
-        <v>0</v>
+        <v>-589827.008</v>
       </c>
       <c r="AS60" t="n">
-        <v>0</v>
+        <v>-559271.936</v>
       </c>
       <c r="AT60" t="n">
-        <v>-587196.032</v>
+        <v>-565158.0159999999</v>
       </c>
       <c r="AU60" t="n">
-        <v>-589827.008</v>
+        <v>-612268.032</v>
       </c>
       <c r="AV60" t="n">
-        <v>-559271.936</v>
+        <v>-627238.0159999999</v>
       </c>
       <c r="AW60" t="n">
-        <v>-565158.0159999999</v>
+        <v>-583728.8959999999</v>
       </c>
       <c r="AX60" t="n">
-        <v>-612268.032</v>
+        <v>-610140.032</v>
       </c>
       <c r="AY60" t="n">
-        <v>-627238.0159999999</v>
+        <v>-708142.0159999999</v>
       </c>
       <c r="AZ60" t="n">
-        <v>-583728.8959999999</v>
+        <v>-706108.032</v>
       </c>
       <c r="BA60" t="n">
-        <v>-610140.032</v>
+        <v>-680595.008</v>
       </c>
       <c r="BB60" t="n">
-        <v>-708142.0159999999</v>
+        <v>-794609.9840000001</v>
       </c>
       <c r="BC60" t="n">
-        <v>-706108.032</v>
+        <v>-843315.968</v>
       </c>
       <c r="BD60" t="n">
-        <v>-680595.008</v>
+        <v>-864332.928</v>
       </c>
       <c r="BE60" t="n">
-        <v>-794609.9840000001</v>
+        <v>-682678.976</v>
       </c>
       <c r="BF60" t="n">
-        <v>-843315.968</v>
+        <v>-776225.9840000001</v>
       </c>
       <c r="BG60" t="n">
-        <v>-864332.928</v>
+        <v>-755486.976</v>
       </c>
       <c r="BH60" t="n">
-        <v>-682678.976</v>
+        <v>-688846.0159999999</v>
       </c>
       <c r="BI60" t="n">
-        <v>-776225.9840000001</v>
+        <v>-823339.008</v>
       </c>
     </row>
     <row r="61">
@@ -11584,100 +11572,100 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>33816</v>
+        <v>-12406</v>
       </c>
       <c r="C61" t="n">
-        <v>15898</v>
+        <v>21619</v>
       </c>
       <c r="D61" t="n">
-        <v>1938</v>
+        <v>17227</v>
       </c>
       <c r="E61" t="n">
-        <v>-12406</v>
+        <v>-10110</v>
       </c>
       <c r="F61" t="n">
-        <v>21619</v>
+        <v>-9603</v>
       </c>
       <c r="G61" t="n">
-        <v>17227</v>
+        <v>16249</v>
       </c>
       <c r="H61" t="n">
-        <v>-10110</v>
+        <v>12149</v>
       </c>
       <c r="I61" t="n">
-        <v>-9603</v>
+        <v>12149</v>
       </c>
       <c r="J61" t="n">
-        <v>16249</v>
+        <v>-18936</v>
       </c>
       <c r="K61" t="n">
-        <v>12149</v>
+        <v>-37472</v>
       </c>
       <c r="L61" t="n">
-        <v>12149</v>
+        <v>-10830</v>
       </c>
       <c r="M61" t="n">
-        <v>-18936</v>
+        <v>-14177</v>
       </c>
       <c r="N61" t="n">
-        <v>-37472</v>
+        <v>4864</v>
       </c>
       <c r="O61" t="n">
-        <v>-10830</v>
+        <v>-39266</v>
       </c>
       <c r="P61" t="n">
-        <v>-14177</v>
+        <v>-24816</v>
       </c>
       <c r="Q61" t="n">
-        <v>4864</v>
+        <v>-37080</v>
       </c>
       <c r="R61" t="n">
-        <v>-39266</v>
+        <v>38131</v>
       </c>
       <c r="S61" t="n">
-        <v>-24816</v>
+        <v>-61560</v>
       </c>
       <c r="T61" t="n">
-        <v>-37080</v>
+        <v>-37622</v>
       </c>
       <c r="U61" t="n">
-        <v>38131</v>
+        <v>24936</v>
       </c>
       <c r="V61" t="n">
-        <v>-61560</v>
+        <v>-82522.992</v>
       </c>
       <c r="W61" t="n">
-        <v>-37622</v>
+        <v>-20208</v>
       </c>
       <c r="X61" t="n">
-        <v>24936</v>
+        <v>20330</v>
       </c>
       <c r="Y61" t="n">
-        <v>-82522.992</v>
+        <v>15667</v>
       </c>
       <c r="Z61" t="n">
-        <v>-20208</v>
+        <v>-39052</v>
       </c>
       <c r="AA61" t="n">
-        <v>20330</v>
+        <v>-20070</v>
       </c>
       <c r="AB61" t="n">
-        <v>15667</v>
+        <v>14865</v>
       </c>
       <c r="AC61" t="n">
-        <v>-39052</v>
+        <v>35366</v>
       </c>
       <c r="AD61" t="n">
-        <v>-20070</v>
+        <v>-30161</v>
       </c>
       <c r="AE61" t="n">
-        <v>14865</v>
+        <v>0</v>
       </c>
       <c r="AF61" t="n">
-        <v>35366</v>
+        <v>0</v>
       </c>
       <c r="AG61" t="n">
-        <v>-30161</v>
+        <v>0</v>
       </c>
       <c r="AH61" t="n">
         <v>0</v>
@@ -11707,61 +11695,61 @@
         <v>0</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0</v>
+        <v>-5439</v>
       </c>
       <c r="AR61" t="n">
-        <v>0</v>
+        <v>126588</v>
       </c>
       <c r="AS61" t="n">
-        <v>0</v>
+        <v>38003</v>
       </c>
       <c r="AT61" t="n">
-        <v>-5439</v>
+        <v>-29582</v>
       </c>
       <c r="AU61" t="n">
-        <v>126588</v>
+        <v>151824</v>
       </c>
       <c r="AV61" t="n">
-        <v>38003</v>
+        <v>159728.992</v>
       </c>
       <c r="AW61" t="n">
-        <v>-29582</v>
+        <v>19019.024</v>
       </c>
       <c r="AX61" t="n">
-        <v>151824</v>
+        <v>-7591</v>
       </c>
       <c r="AY61" t="n">
-        <v>159728.992</v>
+        <v>96260</v>
       </c>
       <c r="AZ61" t="n">
-        <v>19019.024</v>
+        <v>-93395</v>
       </c>
       <c r="BA61" t="n">
-        <v>-7591</v>
+        <v>-146032</v>
       </c>
       <c r="BB61" t="n">
-        <v>96260</v>
+        <v>51591</v>
       </c>
       <c r="BC61" t="n">
-        <v>-93395</v>
+        <v>101725</v>
       </c>
       <c r="BD61" t="n">
-        <v>-146032</v>
+        <v>-141527.008</v>
       </c>
       <c r="BE61" t="n">
-        <v>51591</v>
+        <v>46970</v>
       </c>
       <c r="BF61" t="n">
-        <v>101725</v>
+        <v>182090</v>
       </c>
       <c r="BG61" t="n">
-        <v>-141527.008</v>
+        <v>151912</v>
       </c>
       <c r="BH61" t="n">
-        <v>46970</v>
+        <v>197470</v>
       </c>
       <c r="BI61" t="n">
-        <v>182090</v>
+        <v>294756.992</v>
       </c>
     </row>
     <row r="62">
@@ -11771,100 +11759,100 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-820</v>
+        <v>397</v>
       </c>
       <c r="C62" t="n">
-        <v>-2878</v>
+        <v>-449</v>
       </c>
       <c r="D62" t="n">
-        <v>656</v>
+        <v>-1097</v>
       </c>
       <c r="E62" t="n">
-        <v>397</v>
+        <v>1032</v>
       </c>
       <c r="F62" t="n">
-        <v>-449</v>
+        <v>-13</v>
       </c>
       <c r="G62" t="n">
-        <v>-1097</v>
+        <v>-14</v>
       </c>
       <c r="H62" t="n">
-        <v>1032</v>
+        <v>-14</v>
       </c>
       <c r="I62" t="n">
+        <v>-14</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-33</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-27</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-54</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-29</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-27</v>
+      </c>
+      <c r="P62" t="n">
         <v>-13</v>
       </c>
-      <c r="J62" t="n">
+      <c r="Q62" t="n">
+        <v>-34</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-17</v>
+      </c>
+      <c r="S62" t="n">
         <v>-14</v>
       </c>
-      <c r="K62" t="n">
-        <v>-14</v>
-      </c>
-      <c r="L62" t="n">
-        <v>-14</v>
-      </c>
-      <c r="M62" t="n">
-        <v>-33</v>
-      </c>
-      <c r="N62" t="n">
+      <c r="T62" t="n">
+        <v>-31</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-29</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-28</v>
+      </c>
+      <c r="W62" t="n">
+        <v>-23</v>
+      </c>
+      <c r="X62" t="n">
         <v>-27</v>
       </c>
-      <c r="O62" t="n">
-        <v>-54</v>
-      </c>
-      <c r="P62" t="n">
-        <v>-29</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>1</v>
-      </c>
-      <c r="R62" t="n">
+      <c r="Y62" t="n">
         <v>-27</v>
       </c>
-      <c r="S62" t="n">
-        <v>-13</v>
-      </c>
-      <c r="T62" t="n">
-        <v>-34</v>
-      </c>
-      <c r="U62" t="n">
-        <v>-17</v>
-      </c>
-      <c r="V62" t="n">
-        <v>-14</v>
-      </c>
-      <c r="W62" t="n">
-        <v>-31</v>
-      </c>
-      <c r="X62" t="n">
-        <v>-29</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>-28</v>
-      </c>
       <c r="Z62" t="n">
-        <v>-23</v>
+        <v>-43</v>
       </c>
       <c r="AA62" t="n">
-        <v>-27</v>
+        <v>-37</v>
       </c>
       <c r="AB62" t="n">
-        <v>-27</v>
+        <v>-42</v>
       </c>
       <c r="AC62" t="n">
-        <v>-43</v>
+        <v>-40</v>
       </c>
       <c r="AD62" t="n">
-        <v>-37</v>
+        <v>119</v>
       </c>
       <c r="AE62" t="n">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="AF62" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="AG62" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="AH62" t="n">
         <v>0</v>
@@ -11958,100 +11946,100 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-7421</v>
+        <v>-11938</v>
       </c>
       <c r="C63" t="n">
-        <v>-6416</v>
+        <v>-11196</v>
       </c>
       <c r="D63" t="n">
-        <v>-7119</v>
+        <v>-11837</v>
       </c>
       <c r="E63" t="n">
-        <v>-11938</v>
+        <v>-12430</v>
       </c>
       <c r="F63" t="n">
-        <v>-11196</v>
+        <v>-11149</v>
       </c>
       <c r="G63" t="n">
-        <v>-11837</v>
+        <v>-12108</v>
       </c>
       <c r="H63" t="n">
-        <v>-12430</v>
+        <v>-10645</v>
       </c>
       <c r="I63" t="n">
-        <v>-11149</v>
+        <v>-10645</v>
       </c>
       <c r="J63" t="n">
-        <v>-12108</v>
+        <v>-13150</v>
       </c>
       <c r="K63" t="n">
-        <v>-10645</v>
+        <v>-13052</v>
       </c>
       <c r="L63" t="n">
-        <v>-10645</v>
+        <v>-12186</v>
       </c>
       <c r="M63" t="n">
-        <v>-13150</v>
+        <v>-14334</v>
       </c>
       <c r="N63" t="n">
-        <v>-13052</v>
+        <v>-13226</v>
       </c>
       <c r="O63" t="n">
-        <v>-12186</v>
+        <v>-8794</v>
       </c>
       <c r="P63" t="n">
-        <v>-14334</v>
+        <v>-14120</v>
       </c>
       <c r="Q63" t="n">
-        <v>-13226</v>
+        <v>-9330</v>
       </c>
       <c r="R63" t="n">
-        <v>-8794</v>
+        <v>-13579</v>
       </c>
       <c r="S63" t="n">
-        <v>-14120</v>
+        <v>-12688</v>
       </c>
       <c r="T63" t="n">
-        <v>-9330</v>
+        <v>9263</v>
       </c>
       <c r="U63" t="n">
-        <v>-13579</v>
+        <v>-2049</v>
       </c>
       <c r="V63" t="n">
-        <v>-12688</v>
+        <v>-6342</v>
       </c>
       <c r="W63" t="n">
-        <v>9263</v>
+        <v>-3557</v>
       </c>
       <c r="X63" t="n">
-        <v>-2049</v>
+        <v>860</v>
       </c>
       <c r="Y63" t="n">
-        <v>-6342</v>
+        <v>-1719</v>
       </c>
       <c r="Z63" t="n">
-        <v>-3557</v>
+        <v>-831</v>
       </c>
       <c r="AA63" t="n">
-        <v>860</v>
+        <v>-1455</v>
       </c>
       <c r="AB63" t="n">
-        <v>-1719</v>
+        <v>-1458</v>
       </c>
       <c r="AC63" t="n">
-        <v>-831</v>
+        <v>-2494</v>
       </c>
       <c r="AD63" t="n">
-        <v>-1455</v>
+        <v>5407</v>
       </c>
       <c r="AE63" t="n">
-        <v>-1458</v>
+        <v>0</v>
       </c>
       <c r="AF63" t="n">
-        <v>-2494</v>
+        <v>0</v>
       </c>
       <c r="AG63" t="n">
-        <v>5407</v>
+        <v>0</v>
       </c>
       <c r="AH63" t="n">
         <v>0</v>
@@ -12081,61 +12069,61 @@
         <v>0</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0</v>
+        <v>-13635</v>
       </c>
       <c r="AR63" t="n">
-        <v>0</v>
+        <v>-24487</v>
       </c>
       <c r="AS63" t="n">
-        <v>0</v>
+        <v>-28617</v>
       </c>
       <c r="AT63" t="n">
-        <v>-13635</v>
+        <v>-20560</v>
       </c>
       <c r="AU63" t="n">
-        <v>-24487</v>
+        <v>-24050</v>
       </c>
       <c r="AV63" t="n">
-        <v>-28617</v>
+        <v>-27191</v>
       </c>
       <c r="AW63" t="n">
-        <v>-20560</v>
+        <v>-23664</v>
       </c>
       <c r="AX63" t="n">
-        <v>-24050</v>
+        <v>-22975</v>
       </c>
       <c r="AY63" t="n">
-        <v>-27191</v>
+        <v>-28911</v>
       </c>
       <c r="AZ63" t="n">
-        <v>-23664</v>
+        <v>-33248</v>
       </c>
       <c r="BA63" t="n">
-        <v>-22975</v>
+        <v>-21536</v>
       </c>
       <c r="BB63" t="n">
-        <v>-28911</v>
+        <v>-25598</v>
       </c>
       <c r="BC63" t="n">
-        <v>-33248</v>
+        <v>-24144</v>
       </c>
       <c r="BD63" t="n">
-        <v>-21536</v>
+        <v>-28904</v>
       </c>
       <c r="BE63" t="n">
-        <v>-25598</v>
+        <v>-29282</v>
       </c>
       <c r="BF63" t="n">
-        <v>-24144</v>
+        <v>-22688</v>
       </c>
       <c r="BG63" t="n">
-        <v>-28904</v>
+        <v>-31343</v>
       </c>
       <c r="BH63" t="n">
-        <v>-29282</v>
+        <v>-34305</v>
       </c>
       <c r="BI63" t="n">
-        <v>-22688</v>
+        <v>-36264</v>
       </c>
     </row>
     <row r="64">
@@ -12153,9 +12141,15 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
@@ -12268,22 +12262,22 @@
         <v>0</v>
       </c>
       <c r="AY64" t="n">
-        <v>0</v>
+        <v>-2744</v>
       </c>
       <c r="AZ64" t="n">
-        <v>0</v>
+        <v>-168191.008</v>
       </c>
       <c r="BA64" t="n">
         <v>0</v>
       </c>
       <c r="BB64" t="n">
-        <v>-2744</v>
+        <v>0</v>
       </c>
       <c r="BC64" t="n">
-        <v>-168191.008</v>
+        <v>0</v>
       </c>
       <c r="BD64" t="n">
-        <v>0</v>
+        <v>-1313676.032</v>
       </c>
       <c r="BE64" t="n">
         <v>0</v>
@@ -12292,7 +12286,7 @@
         <v>0</v>
       </c>
       <c r="BG64" t="n">
-        <v>-1313676.032</v>
+        <v>-776534.0159999999</v>
       </c>
       <c r="BH64" t="n">
         <v>0</v>
@@ -12308,100 +12302,100 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4199</v>
+        <v>7129</v>
       </c>
       <c r="C65" t="n">
-        <v>15741</v>
+        <v>6826</v>
       </c>
       <c r="D65" t="n">
-        <v>23767</v>
+        <v>26275</v>
       </c>
       <c r="E65" t="n">
-        <v>7129</v>
+        <v>25808</v>
       </c>
       <c r="F65" t="n">
+        <v>5559</v>
+      </c>
+      <c r="G65" t="n">
         <v>6826</v>
       </c>
-      <c r="G65" t="n">
-        <v>26275</v>
-      </c>
       <c r="H65" t="n">
-        <v>25808</v>
+        <v>3831</v>
       </c>
       <c r="I65" t="n">
-        <v>5559</v>
+        <v>3831</v>
       </c>
       <c r="J65" t="n">
-        <v>6826</v>
+        <v>49434</v>
       </c>
       <c r="K65" t="n">
-        <v>3831</v>
+        <v>13733</v>
       </c>
       <c r="L65" t="n">
-        <v>3831</v>
+        <v>8739</v>
       </c>
       <c r="M65" t="n">
-        <v>49434</v>
+        <v>6900</v>
       </c>
       <c r="N65" t="n">
-        <v>13733</v>
+        <v>21840</v>
       </c>
       <c r="O65" t="n">
-        <v>8739</v>
+        <v>3780</v>
       </c>
       <c r="P65" t="n">
-        <v>6900</v>
+        <v>6731</v>
       </c>
       <c r="Q65" t="n">
-        <v>21840</v>
+        <v>13307</v>
       </c>
       <c r="R65" t="n">
-        <v>3780</v>
+        <v>24036</v>
       </c>
       <c r="S65" t="n">
-        <v>6731</v>
+        <v>8714</v>
       </c>
       <c r="T65" t="n">
-        <v>13307</v>
+        <v>14195</v>
       </c>
       <c r="U65" t="n">
-        <v>24036</v>
+        <v>8008</v>
       </c>
       <c r="V65" t="n">
-        <v>8714</v>
+        <v>11246</v>
       </c>
       <c r="W65" t="n">
-        <v>14195</v>
+        <v>18319</v>
       </c>
       <c r="X65" t="n">
-        <v>8008</v>
+        <v>11602</v>
       </c>
       <c r="Y65" t="n">
-        <v>11246</v>
+        <v>10600</v>
       </c>
       <c r="Z65" t="n">
-        <v>18319</v>
+        <v>18729</v>
       </c>
       <c r="AA65" t="n">
-        <v>11602</v>
+        <v>11813</v>
       </c>
       <c r="AB65" t="n">
-        <v>10600</v>
+        <v>40485</v>
       </c>
       <c r="AC65" t="n">
-        <v>18729</v>
+        <v>38010</v>
       </c>
       <c r="AD65" t="n">
-        <v>11813</v>
+        <v>-90308</v>
       </c>
       <c r="AE65" t="n">
-        <v>40485</v>
+        <v>0</v>
       </c>
       <c r="AF65" t="n">
-        <v>38010</v>
+        <v>0</v>
       </c>
       <c r="AG65" t="n">
-        <v>-90308</v>
+        <v>0</v>
       </c>
       <c r="AH65" t="n">
         <v>0</v>
@@ -12431,61 +12425,61 @@
         <v>0</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0</v>
+        <v>8498</v>
       </c>
       <c r="AR65" t="n">
-        <v>0</v>
+        <v>31352</v>
       </c>
       <c r="AS65" t="n">
-        <v>0</v>
+        <v>113327</v>
       </c>
       <c r="AT65" t="n">
-        <v>8498</v>
+        <v>12690</v>
       </c>
       <c r="AU65" t="n">
-        <v>31352</v>
+        <v>10693</v>
       </c>
       <c r="AV65" t="n">
-        <v>113327</v>
+        <v>19514</v>
       </c>
       <c r="AW65" t="n">
-        <v>12690</v>
+        <v>33466</v>
       </c>
       <c r="AX65" t="n">
-        <v>10693</v>
+        <v>18148</v>
       </c>
       <c r="AY65" t="n">
-        <v>19514</v>
+        <v>0</v>
       </c>
       <c r="AZ65" t="n">
-        <v>33466</v>
+        <v>-18148</v>
       </c>
       <c r="BA65" t="n">
-        <v>18148</v>
+        <v>1006</v>
       </c>
       <c r="BB65" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="BC65" t="n">
-        <v>-18148</v>
+        <v>0</v>
       </c>
       <c r="BD65" t="n">
-        <v>1006</v>
+        <v>-1132</v>
       </c>
       <c r="BE65" t="n">
-        <v>126</v>
+        <v>3372</v>
       </c>
       <c r="BF65" t="n">
         <v>0</v>
       </c>
       <c r="BG65" t="n">
-        <v>-1132</v>
+        <v>0</v>
       </c>
       <c r="BH65" t="n">
-        <v>3372</v>
+        <v>0</v>
       </c>
       <c r="BI65" t="n">
-        <v>0</v>
+        <v>-307</v>
       </c>
     </row>
     <row r="66">
@@ -12495,100 +12489,100 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-1281</v>
+        <v>-9835</v>
       </c>
       <c r="C66" t="n">
-        <v>-11600</v>
+        <v>-11553</v>
       </c>
       <c r="D66" t="n">
-        <v>-11103</v>
+        <v>-6635</v>
       </c>
       <c r="E66" t="n">
-        <v>-9835</v>
+        <v>-9967</v>
       </c>
       <c r="F66" t="n">
-        <v>-11553</v>
+        <v>-3182</v>
       </c>
       <c r="G66" t="n">
-        <v>-6635</v>
+        <v>-504</v>
       </c>
       <c r="H66" t="n">
-        <v>-9967</v>
+        <v>-7027</v>
       </c>
       <c r="I66" t="n">
-        <v>-3182</v>
+        <v>-7027</v>
       </c>
       <c r="J66" t="n">
-        <v>-504</v>
+        <v>-17587</v>
       </c>
       <c r="K66" t="n">
-        <v>-7027</v>
+        <v>-22125</v>
       </c>
       <c r="L66" t="n">
-        <v>-7027</v>
+        <v>-21040</v>
       </c>
       <c r="M66" t="n">
-        <v>-17587</v>
+        <v>-27052</v>
       </c>
       <c r="N66" t="n">
-        <v>-22125</v>
+        <v>-53240</v>
       </c>
       <c r="O66" t="n">
-        <v>-21040</v>
+        <v>-28567</v>
       </c>
       <c r="P66" t="n">
-        <v>-27052</v>
+        <v>-15866</v>
       </c>
       <c r="Q66" t="n">
-        <v>-53240</v>
+        <v>-16290</v>
       </c>
       <c r="R66" t="n">
-        <v>-28567</v>
+        <v>-42214</v>
       </c>
       <c r="S66" t="n">
-        <v>-15866</v>
+        <v>-39884</v>
       </c>
       <c r="T66" t="n">
-        <v>-16290</v>
+        <v>-25718</v>
       </c>
       <c r="U66" t="n">
-        <v>-42214</v>
+        <v>-22096</v>
       </c>
       <c r="V66" t="n">
-        <v>-39884</v>
+        <v>-70933.008</v>
       </c>
       <c r="W66" t="n">
-        <v>-25718</v>
+        <v>-21412</v>
       </c>
       <c r="X66" t="n">
-        <v>-22096</v>
+        <v>-19500</v>
       </c>
       <c r="Y66" t="n">
-        <v>-70933.008</v>
+        <v>-11365</v>
       </c>
       <c r="Z66" t="n">
-        <v>-21412</v>
+        <v>-27818</v>
       </c>
       <c r="AA66" t="n">
-        <v>-19500</v>
+        <v>-11949</v>
       </c>
       <c r="AB66" t="n">
-        <v>-11365</v>
+        <v>-24870</v>
       </c>
       <c r="AC66" t="n">
-        <v>-27818</v>
+        <v>-32970</v>
       </c>
       <c r="AD66" t="n">
-        <v>-11949</v>
+        <v>69789</v>
       </c>
       <c r="AE66" t="n">
-        <v>-24870</v>
+        <v>0</v>
       </c>
       <c r="AF66" t="n">
-        <v>-32970</v>
+        <v>0</v>
       </c>
       <c r="AG66" t="n">
-        <v>69789</v>
+        <v>0</v>
       </c>
       <c r="AH66" t="n">
         <v>0</v>
@@ -12618,61 +12612,61 @@
         <v>0</v>
       </c>
       <c r="AQ66" t="n">
-        <v>0</v>
+        <v>-52588</v>
       </c>
       <c r="AR66" t="n">
-        <v>0</v>
+        <v>-43221</v>
       </c>
       <c r="AS66" t="n">
-        <v>0</v>
+        <v>-67849</v>
       </c>
       <c r="AT66" t="n">
-        <v>-52588</v>
+        <v>-48348</v>
       </c>
       <c r="AU66" t="n">
-        <v>-43221</v>
+        <v>-57436</v>
       </c>
       <c r="AV66" t="n">
-        <v>-67849</v>
+        <v>-48028</v>
       </c>
       <c r="AW66" t="n">
-        <v>-48348</v>
+        <v>-51286</v>
       </c>
       <c r="AX66" t="n">
-        <v>-57436</v>
+        <v>-92385</v>
       </c>
       <c r="AY66" t="n">
-        <v>-48028</v>
+        <v>-490</v>
       </c>
       <c r="AZ66" t="n">
-        <v>-51286</v>
+        <v>-21538</v>
       </c>
       <c r="BA66" t="n">
-        <v>-92385</v>
+        <v>-16543</v>
       </c>
       <c r="BB66" t="n">
-        <v>-490</v>
+        <v>-48878</v>
       </c>
       <c r="BC66" t="n">
-        <v>-21538</v>
+        <v>-46433</v>
       </c>
       <c r="BD66" t="n">
-        <v>-16543</v>
+        <v>-150352</v>
       </c>
       <c r="BE66" t="n">
-        <v>-48878</v>
+        <v>-14987</v>
       </c>
       <c r="BF66" t="n">
-        <v>-46433</v>
+        <v>-63445</v>
       </c>
       <c r="BG66" t="n">
-        <v>-150352</v>
+        <v>-114618.016</v>
       </c>
       <c r="BH66" t="n">
-        <v>-14987</v>
+        <v>-1345</v>
       </c>
       <c r="BI66" t="n">
-        <v>-63445</v>
+        <v>-62203</v>
       </c>
     </row>
     <row r="67">
@@ -12832,7 +12826,7 @@
         <v>0</v>
       </c>
       <c r="AZ67" t="n">
-        <v>0</v>
+        <v>135502</v>
       </c>
       <c r="BA67" t="n">
         <v>0</v>
@@ -12841,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="BC67" t="n">
-        <v>135502</v>
+        <v>0</v>
       </c>
       <c r="BD67" t="n">
         <v>0</v>
@@ -12869,100 +12863,100 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1096</v>
+        <v>365</v>
       </c>
       <c r="C68" t="n">
-        <v>2862</v>
+        <v>-501</v>
       </c>
       <c r="D68" t="n">
-        <v>3469</v>
+        <v>5774</v>
       </c>
       <c r="E68" t="n">
-        <v>365</v>
+        <v>1719</v>
       </c>
       <c r="F68" t="n">
-        <v>-501</v>
+        <v>-4493</v>
       </c>
       <c r="G68" t="n">
-        <v>5774</v>
+        <v>-5673</v>
       </c>
       <c r="H68" t="n">
-        <v>1719</v>
+        <v>8336</v>
       </c>
       <c r="I68" t="n">
-        <v>-4493</v>
+        <v>8336</v>
       </c>
       <c r="J68" t="n">
-        <v>-5673</v>
+        <v>82</v>
       </c>
       <c r="K68" t="n">
-        <v>8336</v>
+        <v>1802</v>
       </c>
       <c r="L68" t="n">
-        <v>8336</v>
+        <v>-3741</v>
       </c>
       <c r="M68" t="n">
-        <v>82</v>
+        <v>-1087</v>
       </c>
       <c r="N68" t="n">
-        <v>1802</v>
+        <v>10597</v>
       </c>
       <c r="O68" t="n">
-        <v>-3741</v>
+        <v>-4270</v>
       </c>
       <c r="P68" t="n">
-        <v>-1087</v>
+        <v>1137</v>
       </c>
       <c r="Q68" t="n">
-        <v>10597</v>
+        <v>817</v>
       </c>
       <c r="R68" t="n">
-        <v>-4270</v>
+        <v>3194</v>
       </c>
       <c r="S68" t="n">
-        <v>1137</v>
+        <v>-1486</v>
       </c>
       <c r="T68" t="n">
-        <v>817</v>
+        <v>1441</v>
       </c>
       <c r="U68" t="n">
-        <v>3194</v>
+        <v>-4144</v>
       </c>
       <c r="V68" t="n">
-        <v>-1486</v>
+        <v>-159242.016</v>
       </c>
       <c r="W68" t="n">
-        <v>1441</v>
+        <v>-4456</v>
       </c>
       <c r="X68" t="n">
-        <v>-4144</v>
+        <v>2622</v>
       </c>
       <c r="Y68" t="n">
-        <v>-159242.016</v>
+        <v>2949</v>
       </c>
       <c r="Z68" t="n">
-        <v>-4456</v>
+        <v>16973</v>
       </c>
       <c r="AA68" t="n">
-        <v>2622</v>
+        <v>7669</v>
       </c>
       <c r="AB68" t="n">
-        <v>2949</v>
+        <v>7586</v>
       </c>
       <c r="AC68" t="n">
-        <v>16973</v>
+        <v>-142</v>
       </c>
       <c r="AD68" t="n">
-        <v>7669</v>
+        <v>-15113</v>
       </c>
       <c r="AE68" t="n">
-        <v>7586</v>
+        <v>0</v>
       </c>
       <c r="AF68" t="n">
-        <v>-142</v>
+        <v>0</v>
       </c>
       <c r="AG68" t="n">
-        <v>-15113</v>
+        <v>0</v>
       </c>
       <c r="AH68" t="n">
         <v>0</v>
@@ -12992,61 +12986,61 @@
         <v>0</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0</v>
+        <v>-44404</v>
       </c>
       <c r="AR68" t="n">
-        <v>0</v>
+        <v>-56874</v>
       </c>
       <c r="AS68" t="n">
-        <v>0</v>
+        <v>-9346.016</v>
       </c>
       <c r="AT68" t="n">
-        <v>-44404</v>
+        <v>-63787</v>
       </c>
       <c r="AU68" t="n">
-        <v>-56874</v>
+        <v>-76413</v>
       </c>
       <c r="AV68" t="n">
-        <v>-9346.016</v>
+        <v>-63373</v>
       </c>
       <c r="AW68" t="n">
-        <v>-63787</v>
+        <v>-33303.992</v>
       </c>
       <c r="AX68" t="n">
-        <v>-76413</v>
+        <v>-65904</v>
       </c>
       <c r="AY68" t="n">
-        <v>-63373</v>
+        <v>-46420</v>
       </c>
       <c r="AZ68" t="n">
-        <v>-33303.992</v>
+        <v>-27270.008</v>
       </c>
       <c r="BA68" t="n">
-        <v>-65904</v>
+        <v>-48027</v>
       </c>
       <c r="BB68" t="n">
-        <v>-46420</v>
+        <v>-71747</v>
       </c>
       <c r="BC68" t="n">
-        <v>-27270.008</v>
+        <v>-55900</v>
       </c>
       <c r="BD68" t="n">
-        <v>-48027</v>
+        <v>-66198</v>
       </c>
       <c r="BE68" t="n">
-        <v>-71747</v>
+        <v>-75002</v>
       </c>
       <c r="BF68" t="n">
-        <v>-55900</v>
+        <v>-86136</v>
       </c>
       <c r="BG68" t="n">
-        <v>-66198</v>
+        <v>-72022.016</v>
       </c>
       <c r="BH68" t="n">
-        <v>-75002</v>
+        <v>-58040</v>
       </c>
       <c r="BI68" t="n">
-        <v>-86136</v>
+        <v>-75029</v>
       </c>
     </row>
     <row r="69">
@@ -13056,43 +13050,43 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3623</v>
+        <v>2598</v>
       </c>
       <c r="C69" t="n">
-        <v>4373</v>
+        <v>494</v>
       </c>
       <c r="D69" t="n">
-        <v>5016</v>
+        <v>4926</v>
       </c>
       <c r="E69" t="n">
-        <v>2598</v>
+        <v>-1791</v>
       </c>
       <c r="F69" t="n">
-        <v>494</v>
+        <v>1156</v>
       </c>
       <c r="G69" t="n">
-        <v>4926</v>
+        <v>1508</v>
       </c>
       <c r="H69" t="n">
-        <v>-1791</v>
+        <v>1212</v>
       </c>
       <c r="I69" t="n">
-        <v>1156</v>
+        <v>1212</v>
       </c>
       <c r="J69" t="n">
-        <v>1508</v>
+        <v>1694</v>
       </c>
       <c r="K69" t="n">
-        <v>1212</v>
+        <v>4922</v>
       </c>
       <c r="L69" t="n">
-        <v>1212</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>1694</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>4922</v>
+        <v>9898</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -13101,7 +13095,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>9898</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -13122,34 +13116,34 @@
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>0</v>
+        <v>3771</v>
       </c>
       <c r="Y69" t="n">
         <v>0</v>
       </c>
       <c r="Z69" t="n">
-        <v>0</v>
+        <v>-3771</v>
       </c>
       <c r="AA69" t="n">
-        <v>3771</v>
+        <v>0</v>
       </c>
       <c r="AB69" t="n">
-        <v>0</v>
+        <v>9048</v>
       </c>
       <c r="AC69" t="n">
-        <v>-3771</v>
+        <v>0</v>
       </c>
       <c r="AD69" t="n">
-        <v>0</v>
+        <v>-9048</v>
       </c>
       <c r="AE69" t="n">
-        <v>9048</v>
+        <v>0</v>
       </c>
       <c r="AF69" t="n">
         <v>0</v>
       </c>
       <c r="AG69" t="n">
-        <v>-9048</v>
+        <v>0</v>
       </c>
       <c r="AH69" t="n">
         <v>0</v>
@@ -13179,61 +13173,61 @@
         <v>0</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0</v>
+        <v>1353</v>
       </c>
       <c r="AR69" t="n">
-        <v>0</v>
+        <v>1265</v>
       </c>
       <c r="AS69" t="n">
-        <v>0</v>
+        <v>-10987</v>
       </c>
       <c r="AT69" t="n">
+        <v>2693</v>
+      </c>
+      <c r="AU69" t="n">
         <v>1353</v>
       </c>
-      <c r="AU69" t="n">
-        <v>1265</v>
-      </c>
       <c r="AV69" t="n">
-        <v>-10987</v>
+        <v>6530</v>
       </c>
       <c r="AW69" t="n">
-        <v>2693</v>
+        <v>13405</v>
       </c>
       <c r="AX69" t="n">
-        <v>1353</v>
+        <v>4846</v>
       </c>
       <c r="AY69" t="n">
-        <v>6530</v>
+        <v>6905</v>
       </c>
       <c r="AZ69" t="n">
-        <v>13405</v>
+        <v>6113</v>
       </c>
       <c r="BA69" t="n">
-        <v>4846</v>
+        <v>15365</v>
       </c>
       <c r="BB69" t="n">
-        <v>6905</v>
+        <v>15101</v>
       </c>
       <c r="BC69" t="n">
-        <v>6113</v>
+        <v>14264</v>
       </c>
       <c r="BD69" t="n">
-        <v>15365</v>
+        <v>26154</v>
       </c>
       <c r="BE69" t="n">
-        <v>15101</v>
+        <v>18909</v>
       </c>
       <c r="BF69" t="n">
-        <v>14264</v>
+        <v>13791</v>
       </c>
       <c r="BG69" t="n">
-        <v>26154</v>
+        <v>16274</v>
       </c>
       <c r="BH69" t="n">
-        <v>18909</v>
+        <v>12645</v>
       </c>
       <c r="BI69" t="n">
-        <v>13791</v>
+        <v>15876</v>
       </c>
     </row>
     <row r="70">
@@ -13243,43 +13237,43 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-2527</v>
+        <v>-2233</v>
       </c>
       <c r="C70" t="n">
-        <v>-1511</v>
+        <v>-995</v>
       </c>
       <c r="D70" t="n">
-        <v>-1547</v>
+        <v>848</v>
       </c>
       <c r="E70" t="n">
-        <v>-2233</v>
+        <v>3510</v>
       </c>
       <c r="F70" t="n">
-        <v>-995</v>
+        <v>-5649</v>
       </c>
       <c r="G70" t="n">
-        <v>848</v>
+        <v>-7181</v>
       </c>
       <c r="H70" t="n">
-        <v>3510</v>
+        <v>7124</v>
       </c>
       <c r="I70" t="n">
-        <v>-5649</v>
+        <v>7124</v>
       </c>
       <c r="J70" t="n">
-        <v>-7181</v>
+        <v>-1612</v>
       </c>
       <c r="K70" t="n">
-        <v>7124</v>
+        <v>-3120</v>
       </c>
       <c r="L70" t="n">
-        <v>7124</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>-1612</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>-3120</v>
+        <v>-4129</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -13288,7 +13282,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>-4129</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -13309,34 +13303,34 @@
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>0</v>
+        <v>-1149</v>
       </c>
       <c r="Y70" t="n">
         <v>0</v>
       </c>
       <c r="Z70" t="n">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="AA70" t="n">
-        <v>-1149</v>
+        <v>0</v>
       </c>
       <c r="AB70" t="n">
-        <v>0</v>
+        <v>-1462</v>
       </c>
       <c r="AC70" t="n">
-        <v>1149</v>
+        <v>0</v>
       </c>
       <c r="AD70" t="n">
-        <v>0</v>
+        <v>1462</v>
       </c>
       <c r="AE70" t="n">
-        <v>-1462</v>
+        <v>0</v>
       </c>
       <c r="AF70" t="n">
         <v>0</v>
       </c>
       <c r="AG70" t="n">
-        <v>1462</v>
+        <v>0</v>
       </c>
       <c r="AH70" t="n">
         <v>0</v>
@@ -13366,61 +13360,61 @@
         <v>0</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0</v>
+        <v>-45757</v>
       </c>
       <c r="AR70" t="n">
-        <v>0</v>
+        <v>-58139</v>
       </c>
       <c r="AS70" t="n">
-        <v>0</v>
+        <v>154192</v>
       </c>
       <c r="AT70" t="n">
-        <v>-45757</v>
+        <v>-66480</v>
       </c>
       <c r="AU70" t="n">
-        <v>-58139</v>
+        <v>-77766</v>
       </c>
       <c r="AV70" t="n">
-        <v>154192</v>
+        <v>-69903</v>
       </c>
       <c r="AW70" t="n">
-        <v>-66480</v>
+        <v>-46709</v>
       </c>
       <c r="AX70" t="n">
-        <v>-77766</v>
+        <v>-70750</v>
       </c>
       <c r="AY70" t="n">
-        <v>-69903</v>
+        <v>-57966</v>
       </c>
       <c r="AZ70" t="n">
-        <v>-46709</v>
+        <v>-82810.008</v>
       </c>
       <c r="BA70" t="n">
-        <v>-70750</v>
+        <v>-63392</v>
       </c>
       <c r="BB70" t="n">
-        <v>-57966</v>
+        <v>-86848</v>
       </c>
       <c r="BC70" t="n">
-        <v>-82810.008</v>
+        <v>-70164</v>
       </c>
       <c r="BD70" t="n">
-        <v>-63392</v>
+        <v>-92352</v>
       </c>
       <c r="BE70" t="n">
-        <v>-86848</v>
+        <v>-93911</v>
       </c>
       <c r="BF70" t="n">
-        <v>-70164</v>
+        <v>-99927</v>
       </c>
       <c r="BG70" t="n">
-        <v>-92352</v>
+        <v>-88296</v>
       </c>
       <c r="BH70" t="n">
-        <v>-93911</v>
+        <v>-70685</v>
       </c>
       <c r="BI70" t="n">
-        <v>-99927</v>
+        <v>-90905</v>
       </c>
     </row>
     <row r="71">
@@ -13453,15 +13447,9 @@
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -13542,15 +13530,9 @@
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -13631,15 +13613,9 @@
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -13697,100 +13673,100 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>29589</v>
+        <v>-26288</v>
       </c>
       <c r="C74" t="n">
-        <v>13607</v>
+        <v>4746</v>
       </c>
       <c r="D74" t="n">
-        <v>11608</v>
+        <v>29707</v>
       </c>
       <c r="E74" t="n">
-        <v>-26288</v>
+        <v>-3948</v>
       </c>
       <c r="F74" t="n">
-        <v>4746</v>
+        <v>-22881</v>
       </c>
       <c r="G74" t="n">
-        <v>29707</v>
+        <v>4776</v>
       </c>
       <c r="H74" t="n">
-        <v>-3948</v>
+        <v>6630</v>
       </c>
       <c r="I74" t="n">
-        <v>-22881</v>
+        <v>6630</v>
       </c>
       <c r="J74" t="n">
-        <v>4776</v>
+        <v>-190</v>
       </c>
       <c r="K74" t="n">
-        <v>6630</v>
+        <v>-57141</v>
       </c>
       <c r="L74" t="n">
-        <v>6630</v>
+        <v>-39112</v>
       </c>
       <c r="M74" t="n">
-        <v>-190</v>
+        <v>-49779</v>
       </c>
       <c r="N74" t="n">
-        <v>-57141</v>
+        <v>-29164</v>
       </c>
       <c r="O74" t="n">
-        <v>-39112</v>
+        <v>-77144</v>
       </c>
       <c r="P74" t="n">
-        <v>-49779</v>
+        <v>-46947</v>
       </c>
       <c r="Q74" t="n">
-        <v>-29164</v>
+        <v>-48610</v>
       </c>
       <c r="R74" t="n">
-        <v>-77144</v>
+        <v>9551</v>
       </c>
       <c r="S74" t="n">
-        <v>-46947</v>
+        <v>-106918</v>
       </c>
       <c r="T74" t="n">
-        <v>-48610</v>
+        <v>-38472</v>
       </c>
       <c r="U74" t="n">
-        <v>9551</v>
+        <v>4626</v>
       </c>
       <c r="V74" t="n">
-        <v>-106918</v>
+        <v>-307821.984</v>
       </c>
       <c r="W74" t="n">
-        <v>-38472</v>
+        <v>-31337</v>
       </c>
       <c r="X74" t="n">
-        <v>4626</v>
+        <v>15887</v>
       </c>
       <c r="Y74" t="n">
-        <v>-307821.984</v>
+        <v>16105</v>
       </c>
       <c r="Z74" t="n">
-        <v>-31337</v>
+        <v>-32042</v>
       </c>
       <c r="AA74" t="n">
-        <v>15887</v>
+        <v>-14029</v>
       </c>
       <c r="AB74" t="n">
-        <v>16105</v>
+        <v>36566</v>
       </c>
       <c r="AC74" t="n">
-        <v>-32042</v>
+        <v>37730</v>
       </c>
       <c r="AD74" t="n">
-        <v>-14029</v>
+        <v>-60267</v>
       </c>
       <c r="AE74" t="n">
-        <v>36566</v>
+        <v>0</v>
       </c>
       <c r="AF74" t="n">
-        <v>37730</v>
+        <v>0</v>
       </c>
       <c r="AG74" t="n">
-        <v>-60267</v>
+        <v>0</v>
       </c>
       <c r="AH74" t="n">
         <v>0</v>
@@ -13820,61 +13796,61 @@
         <v>0</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0</v>
+        <v>-107568</v>
       </c>
       <c r="AR74" t="n">
-        <v>0</v>
+        <v>33358</v>
       </c>
       <c r="AS74" t="n">
-        <v>0</v>
+        <v>45518</v>
       </c>
       <c r="AT74" t="n">
-        <v>-107568</v>
+        <v>-149587.008</v>
       </c>
       <c r="AU74" t="n">
-        <v>33358</v>
+        <v>4618</v>
       </c>
       <c r="AV74" t="n">
-        <v>45518</v>
+        <v>40651</v>
       </c>
       <c r="AW74" t="n">
-        <v>-149587.008</v>
+        <v>-55769</v>
       </c>
       <c r="AX74" t="n">
-        <v>4618</v>
+        <v>-170707.008</v>
       </c>
       <c r="AY74" t="n">
-        <v>40651</v>
+        <v>17695</v>
       </c>
       <c r="AZ74" t="n">
-        <v>-55769</v>
+        <v>-225419.008</v>
       </c>
       <c r="BA74" t="n">
-        <v>-170707.008</v>
+        <v>-231132</v>
       </c>
       <c r="BB74" t="n">
-        <v>17695</v>
+        <v>-94506</v>
       </c>
       <c r="BC74" t="n">
-        <v>-225419.008</v>
+        <v>-24752</v>
       </c>
       <c r="BD74" t="n">
-        <v>-231132</v>
+        <v>-1701788.928</v>
       </c>
       <c r="BE74" t="n">
-        <v>-94506</v>
+        <v>-68929</v>
       </c>
       <c r="BF74" t="n">
-        <v>-24752</v>
+        <v>9821</v>
       </c>
       <c r="BG74" t="n">
-        <v>-1701788.928</v>
+        <v>-842605.056</v>
       </c>
       <c r="BH74" t="n">
-        <v>-68929</v>
+        <v>103780</v>
       </c>
       <c r="BI74" t="n">
-        <v>9821</v>
+        <v>120954</v>
       </c>
     </row>
     <row r="75">
@@ -13884,13 +13860,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-368</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>-4817</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>2730</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -13962,22 +13938,22 @@
         <v>0</v>
       </c>
       <c r="AB75" t="n">
-        <v>0</v>
+        <v>-17437</v>
       </c>
       <c r="AC75" t="n">
-        <v>0</v>
+        <v>-3953</v>
       </c>
       <c r="AD75" t="n">
-        <v>0</v>
+        <v>21390</v>
       </c>
       <c r="AE75" t="n">
-        <v>-17437</v>
+        <v>0</v>
       </c>
       <c r="AF75" t="n">
-        <v>-3953</v>
+        <v>0</v>
       </c>
       <c r="AG75" t="n">
-        <v>21390</v>
+        <v>0</v>
       </c>
       <c r="AH75" t="n">
         <v>0</v>
@@ -14010,40 +13986,40 @@
         <v>0</v>
       </c>
       <c r="AR75" t="n">
-        <v>0</v>
+        <v>32215</v>
       </c>
       <c r="AS75" t="n">
-        <v>0</v>
+        <v>-42369</v>
       </c>
       <c r="AT75" t="n">
         <v>0</v>
       </c>
       <c r="AU75" t="n">
-        <v>32215</v>
+        <v>0</v>
       </c>
       <c r="AV75" t="n">
-        <v>-42369</v>
+        <v>0</v>
       </c>
       <c r="AW75" t="n">
         <v>0</v>
       </c>
       <c r="AX75" t="n">
-        <v>0</v>
+        <v>-10541</v>
       </c>
       <c r="AY75" t="n">
         <v>0</v>
       </c>
       <c r="AZ75" t="n">
-        <v>0</v>
+        <v>12852</v>
       </c>
       <c r="BA75" t="n">
-        <v>-10541</v>
+        <v>0</v>
       </c>
       <c r="BB75" t="n">
         <v>0</v>
       </c>
       <c r="BC75" t="n">
-        <v>12852</v>
+        <v>0</v>
       </c>
       <c r="BD75" t="n">
         <v>0</v>
@@ -14055,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="BG75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH75" t="n">
         <v>0</v>
@@ -14131,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="V76" t="n">
-        <v>0</v>
+        <v>605035.008</v>
       </c>
       <c r="W76" t="n">
         <v>0</v>
@@ -14140,10 +14116,10 @@
         <v>0</v>
       </c>
       <c r="Y76" t="n">
-        <v>605035.008</v>
+        <v>0</v>
       </c>
       <c r="Z76" t="n">
-        <v>0</v>
+        <v>69361</v>
       </c>
       <c r="AA76" t="n">
         <v>0</v>
@@ -14152,19 +14128,19 @@
         <v>0</v>
       </c>
       <c r="AC76" t="n">
-        <v>69361</v>
+        <v>-7962</v>
       </c>
       <c r="AD76" t="n">
-        <v>0</v>
+        <v>7962</v>
       </c>
       <c r="AE76" t="n">
         <v>0</v>
       </c>
       <c r="AF76" t="n">
-        <v>-7962</v>
+        <v>0</v>
       </c>
       <c r="AG76" t="n">
-        <v>7962</v>
+        <v>0</v>
       </c>
       <c r="AH76" t="n">
         <v>0</v>
@@ -14194,58 +14170,58 @@
         <v>0</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0</v>
+        <v>36424</v>
       </c>
       <c r="AR76" t="n">
-        <v>0</v>
+        <v>-44491</v>
       </c>
       <c r="AS76" t="n">
-        <v>0</v>
+        <v>26492</v>
       </c>
       <c r="AT76" t="n">
-        <v>36424</v>
+        <v>53093</v>
       </c>
       <c r="AU76" t="n">
-        <v>-44491</v>
+        <v>-4830</v>
       </c>
       <c r="AV76" t="n">
-        <v>26492</v>
+        <v>-17175</v>
       </c>
       <c r="AW76" t="n">
-        <v>53093</v>
+        <v>15350</v>
       </c>
       <c r="AX76" t="n">
-        <v>-4830</v>
+        <v>2077</v>
       </c>
       <c r="AY76" t="n">
+        <v>-7226</v>
+      </c>
+      <c r="AZ76" t="n">
         <v>-17175</v>
       </c>
-      <c r="AZ76" t="n">
-        <v>15350</v>
-      </c>
       <c r="BA76" t="n">
-        <v>2077</v>
+        <v>-25757</v>
       </c>
       <c r="BB76" t="n">
-        <v>-7226</v>
+        <v>-3644</v>
       </c>
       <c r="BC76" t="n">
-        <v>-17175</v>
+        <v>10118</v>
       </c>
       <c r="BD76" t="n">
-        <v>-25757</v>
+        <v>-470193.984</v>
       </c>
       <c r="BE76" t="n">
-        <v>-3644</v>
+        <v>0</v>
       </c>
       <c r="BF76" t="n">
-        <v>10118</v>
+        <v>0</v>
       </c>
       <c r="BG76" t="n">
-        <v>-470193.984</v>
+        <v>0</v>
       </c>
       <c r="BH76" t="n">
-        <v>0</v>
+        <v>12851</v>
       </c>
       <c r="BI76" t="n">
         <v>0</v>
@@ -14281,15 +14257,9 @@
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -14370,15 +14340,9 @@
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -14558,15 +14522,9 @@
       <c r="AP79" t="n">
         <v>0</v>
       </c>
-      <c r="AQ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>0</v>
-      </c>
+      <c r="AQ79" t="inlineStr"/>
+      <c r="AR79" t="inlineStr"/>
+      <c r="AS79" t="inlineStr"/>
       <c r="AT79" t="inlineStr"/>
       <c r="AU79" t="inlineStr"/>
       <c r="AV79" t="inlineStr"/>
@@ -14591,100 +14549,100 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>29221</v>
+        <v>-26288</v>
       </c>
       <c r="C80" t="n">
-        <v>8790</v>
+        <v>4746</v>
       </c>
       <c r="D80" t="n">
-        <v>14338</v>
+        <v>29707</v>
       </c>
       <c r="E80" t="n">
-        <v>-26288</v>
+        <v>-3948</v>
       </c>
       <c r="F80" t="n">
-        <v>4746</v>
+        <v>-22881</v>
       </c>
       <c r="G80" t="n">
-        <v>29707</v>
+        <v>4776</v>
       </c>
       <c r="H80" t="n">
-        <v>-3948</v>
+        <v>6630</v>
       </c>
       <c r="I80" t="n">
-        <v>-22881</v>
+        <v>6630</v>
       </c>
       <c r="J80" t="n">
-        <v>4776</v>
+        <v>-190</v>
       </c>
       <c r="K80" t="n">
-        <v>6630</v>
+        <v>-57141</v>
       </c>
       <c r="L80" t="n">
-        <v>6630</v>
+        <v>-39112</v>
       </c>
       <c r="M80" t="n">
-        <v>-190</v>
+        <v>-49779</v>
       </c>
       <c r="N80" t="n">
-        <v>-57141</v>
+        <v>-29164</v>
       </c>
       <c r="O80" t="n">
-        <v>-39112</v>
+        <v>-77144</v>
       </c>
       <c r="P80" t="n">
-        <v>-49779</v>
+        <v>-46947</v>
       </c>
       <c r="Q80" t="n">
-        <v>-29164</v>
+        <v>-48610</v>
       </c>
       <c r="R80" t="n">
-        <v>-77144</v>
+        <v>9551</v>
       </c>
       <c r="S80" t="n">
-        <v>-46947</v>
+        <v>-106918</v>
       </c>
       <c r="T80" t="n">
-        <v>-48610</v>
+        <v>-38472</v>
       </c>
       <c r="U80" t="n">
-        <v>9551</v>
+        <v>4626</v>
       </c>
       <c r="V80" t="n">
-        <v>-106918</v>
+        <v>297212.992</v>
       </c>
       <c r="W80" t="n">
-        <v>-38472</v>
+        <v>-31337</v>
       </c>
       <c r="X80" t="n">
-        <v>4626</v>
+        <v>15887</v>
       </c>
       <c r="Y80" t="n">
-        <v>297212.992</v>
+        <v>16105</v>
       </c>
       <c r="Z80" t="n">
-        <v>-31337</v>
+        <v>37319</v>
       </c>
       <c r="AA80" t="n">
-        <v>15887</v>
+        <v>-3332</v>
       </c>
       <c r="AB80" t="n">
-        <v>16105</v>
+        <v>19129</v>
       </c>
       <c r="AC80" t="n">
-        <v>37319</v>
+        <v>25815</v>
       </c>
       <c r="AD80" t="n">
-        <v>-3332</v>
+        <v>-41612</v>
       </c>
       <c r="AE80" t="n">
-        <v>19129</v>
+        <v>0</v>
       </c>
       <c r="AF80" t="n">
-        <v>25815</v>
+        <v>0</v>
       </c>
       <c r="AG80" t="n">
-        <v>-41612</v>
+        <v>0</v>
       </c>
       <c r="AH80" t="n">
         <v>0</v>
@@ -14714,61 +14672,61 @@
         <v>0</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0</v>
+        <v>-71144</v>
       </c>
       <c r="AR80" t="n">
-        <v>0</v>
+        <v>21082</v>
       </c>
       <c r="AS80" t="n">
-        <v>0</v>
+        <v>29641</v>
       </c>
       <c r="AT80" t="n">
-        <v>-71144</v>
+        <v>-96494</v>
       </c>
       <c r="AU80" t="n">
-        <v>21082</v>
+        <v>-212</v>
       </c>
       <c r="AV80" t="n">
-        <v>29641</v>
+        <v>23476</v>
       </c>
       <c r="AW80" t="n">
-        <v>-96494</v>
+        <v>-40419</v>
       </c>
       <c r="AX80" t="n">
-        <v>-212</v>
+        <v>-179171.008</v>
       </c>
       <c r="AY80" t="n">
-        <v>23476</v>
+        <v>10469</v>
       </c>
       <c r="AZ80" t="n">
-        <v>-40419</v>
+        <v>-229742.016</v>
       </c>
       <c r="BA80" t="n">
-        <v>-179171.008</v>
+        <v>-256888.992</v>
       </c>
       <c r="BB80" t="n">
-        <v>10469</v>
+        <v>-98150</v>
       </c>
       <c r="BC80" t="n">
-        <v>-229742.016</v>
+        <v>-14634</v>
       </c>
       <c r="BD80" t="n">
-        <v>-256888.992</v>
+        <v>-2171983.104</v>
       </c>
       <c r="BE80" t="n">
-        <v>-98150</v>
+        <v>-68929</v>
       </c>
       <c r="BF80" t="n">
-        <v>-14634</v>
+        <v>9821</v>
       </c>
       <c r="BG80" t="n">
-        <v>-2171983.104</v>
+        <v>-842604.032</v>
       </c>
       <c r="BH80" t="n">
-        <v>-68929</v>
+        <v>116631</v>
       </c>
       <c r="BI80" t="n">
-        <v>9821</v>
+        <v>120954</v>
       </c>
     </row>
   </sheetData>
